--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_6.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_6.xlsx
@@ -496,28 +496,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>380.633941317371</v>
+        <v>305.958941322087</v>
       </c>
       <c r="I2" t="n">
-        <v>321.252929700146</v>
+        <v>219.986816410931</v>
       </c>
       <c r="J2" t="n">
-        <v>285.469947280774</v>
+        <v>172.032128026305</v>
       </c>
       <c r="K2" t="n">
-        <v>260.868063378937</v>
+        <v>143.781143146268</v>
       </c>
       <c r="L2" t="n">
-        <v>243.327424603391</v>
+        <v>125.127863454262</v>
       </c>
       <c r="M2" t="n">
-        <v>230.515949118376</v>
+        <v>111.924950718939</v>
       </c>
       <c r="N2" t="n">
-        <v>220.908326779107</v>
+        <v>102.155619670662</v>
       </c>
       <c r="O2" t="n">
-        <v>213.507079985402</v>
+        <v>94.6778620376612</v>
       </c>
     </row>
     <row r="3">
@@ -543,28 +543,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>370.268314997684</v>
+        <v>320.230815000711</v>
       </c>
       <c r="I3" t="n">
-        <v>302.709541664996</v>
+        <v>234.886769975759</v>
       </c>
       <c r="J3" t="n">
-        <v>260.336206438901</v>
+        <v>184.516741111159</v>
       </c>
       <c r="K3" t="n">
-        <v>231.522003931267</v>
+        <v>153.477532364993</v>
       </c>
       <c r="L3" t="n">
-        <v>211.442562841871</v>
+        <v>132.784947783905</v>
       </c>
       <c r="M3" t="n">
-        <v>197.08414020971</v>
+        <v>118.233936086707</v>
       </c>
       <c r="N3" t="n">
-        <v>186.486439487899</v>
+        <v>107.566109931883</v>
       </c>
       <c r="O3" t="n">
-        <v>178.414487830406</v>
+        <v>99.4651339154544</v>
       </c>
     </row>
     <row r="4">
@@ -590,28 +590,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>355.847103355036</v>
+        <v>330.83460335654</v>
       </c>
       <c r="I4" t="n">
-        <v>276.64457628707</v>
+        <v>242.607747121165</v>
       </c>
       <c r="J4" t="n">
-        <v>226.362807319808</v>
+        <v>188.575514578095</v>
       </c>
       <c r="K4" t="n">
-        <v>193.296123418659</v>
+        <v>154.598681934824</v>
       </c>
       <c r="L4" t="n">
-        <v>170.944975776293</v>
+        <v>132.033821271404</v>
       </c>
       <c r="M4" t="n">
-        <v>155.30882968239</v>
+        <v>116.341275831496</v>
       </c>
       <c r="N4" t="n">
-        <v>143.941314505457</v>
+        <v>104.956497497692</v>
       </c>
       <c r="O4" t="n">
-        <v>135.37479194669</v>
+        <v>96.383767415995</v>
       </c>
     </row>
     <row r="5">
@@ -637,28 +637,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>350.841762966168</v>
+        <v>276.166762970885</v>
       </c>
       <c r="I5" t="n">
-        <v>265.946736437144</v>
+        <v>161.41899700805</v>
       </c>
       <c r="J5" t="n">
-        <v>216.582947965064</v>
+        <v>100.959508575313</v>
       </c>
       <c r="K5" t="n">
-        <v>185.171889754022</v>
+        <v>66.9821020354688</v>
       </c>
       <c r="L5" t="n">
-        <v>164.049970000607</v>
+        <v>45.2686976209134</v>
       </c>
       <c r="M5" t="n">
-        <v>149.190830605139</v>
+        <v>30.260054230837</v>
       </c>
       <c r="N5" t="n">
-        <v>138.321446919402</v>
+        <v>19.3476709425518</v>
       </c>
       <c r="O5" t="n">
-        <v>130.09480563981</v>
+        <v>11.1067743893329</v>
       </c>
     </row>
     <row r="6">
@@ -684,28 +684,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>343.224346281674</v>
+        <v>293.1868462847</v>
       </c>
       <c r="I6" t="n">
-        <v>251.721626006519</v>
+        <v>182.016579273066</v>
       </c>
       <c r="J6" t="n">
-        <v>197.273842489868</v>
+        <v>120.254267578413</v>
       </c>
       <c r="K6" t="n">
-        <v>162.848119894713</v>
+        <v>84.2739208470969</v>
       </c>
       <c r="L6" t="n">
-        <v>140.087416387134</v>
+        <v>61.1937751432458</v>
       </c>
       <c r="M6" t="n">
-        <v>124.344709553092</v>
+        <v>45.377526084738</v>
       </c>
       <c r="N6" t="n">
-        <v>112.974769255627</v>
+        <v>33.9876014729822</v>
       </c>
       <c r="O6" t="n">
-        <v>104.442524955083</v>
+        <v>25.4488409393044</v>
       </c>
     </row>
     <row r="7">
@@ -731,28 +731,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>332.668573604037</v>
+        <v>307.656073605541</v>
       </c>
       <c r="I7" t="n">
-        <v>232.084556589221</v>
+        <v>197.36250145535</v>
       </c>
       <c r="J7" t="n">
-        <v>172.076569558569</v>
+        <v>133.891524453198</v>
       </c>
       <c r="K7" t="n">
-        <v>135.023467817805</v>
+        <v>96.1812803586853</v>
       </c>
       <c r="L7" t="n">
-        <v>111.042666608527</v>
+        <v>72.0802889403447</v>
       </c>
       <c r="M7" t="n">
-        <v>94.6947399052476</v>
+        <v>55.706710379565</v>
       </c>
       <c r="N7" t="n">
-        <v>82.9907881312212</v>
+        <v>43.9959144648564</v>
       </c>
       <c r="O7" t="n">
-        <v>74.2532758820862</v>
+        <v>35.2560581493574</v>
       </c>
     </row>
     <row r="8">
@@ -778,28 +778,28 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>287.050807899019</v>
+        <v>212.375807903736</v>
       </c>
       <c r="I8" t="n">
-        <v>179.767919176482</v>
+        <v>77.5162589672474</v>
       </c>
       <c r="J8" t="n">
-        <v>100.050397638173</v>
+        <v>-14.045689195886</v>
       </c>
       <c r="K8" t="n">
-        <v>53.3087599336789</v>
+        <v>-63.8454676587368</v>
       </c>
       <c r="L8" t="n">
-        <v>25.7601678203977</v>
+        <v>-92.347964039085</v>
       </c>
       <c r="M8" t="n">
-        <v>8.0567245171185</v>
+        <v>-110.433937714629</v>
       </c>
       <c r="N8" t="n">
-        <v>-4.19834346635809</v>
+        <v>-122.871388609178</v>
       </c>
       <c r="O8" t="n">
-        <v>-13.1683412913344</v>
+        <v>-131.938972723872</v>
       </c>
     </row>
     <row r="9">
@@ -825,28 +825,28 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>284.309068664709</v>
+        <v>234.271568667736</v>
       </c>
       <c r="I9" t="n">
-        <v>175.453346960936</v>
+        <v>107.988579265978</v>
       </c>
       <c r="J9" t="n">
-        <v>94.2252136187108</v>
+        <v>18.5460497754398</v>
       </c>
       <c r="K9" t="n">
-        <v>46.2838260937278</v>
+        <v>-31.5713942997207</v>
       </c>
       <c r="L9" t="n">
-        <v>17.8339156031122</v>
+        <v>-60.6615492677588</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.533947600645998</v>
+        <v>-79.2647430206882</v>
       </c>
       <c r="N9" t="n">
-        <v>-13.2794063575601</v>
+        <v>-92.1146861106535</v>
       </c>
       <c r="O9" t="n">
-        <v>-22.6152131091167</v>
+        <v>-101.504070488222</v>
       </c>
     </row>
     <row r="10">
@@ -872,28 +872,28 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>280.44365730347</v>
+        <v>255.431157304974</v>
       </c>
       <c r="I10" t="n">
-        <v>169.023528395556</v>
+        <v>135.813055843614</v>
       </c>
       <c r="J10" t="n">
-        <v>85.443527744122</v>
+        <v>48.0748494497129</v>
       </c>
       <c r="K10" t="n">
-        <v>35.8750588139051</v>
+        <v>-2.59544164514419</v>
       </c>
       <c r="L10" t="n">
-        <v>6.37218972419477</v>
+        <v>-32.3977568239551</v>
       </c>
       <c r="M10" t="n">
-        <v>-12.6692983807168</v>
+        <v>-51.5410125284338</v>
       </c>
       <c r="N10" t="n">
-        <v>-25.8515364658283</v>
+        <v>-64.7679936149297</v>
       </c>
       <c r="O10" t="n">
-        <v>-35.4774953631028</v>
+        <v>-74.4183693074558</v>
       </c>
     </row>
     <row r="11">
@@ -1021,28 +1021,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G2" t="n">
-        <v>123.413467761943</v>
+        <v>48.7384677666593</v>
       </c>
       <c r="H2" t="n">
-        <v>196.900529639046</v>
+        <v>95.6344163498311</v>
       </c>
       <c r="I2" t="n">
-        <v>254.480055366507</v>
+        <v>141.042236112038</v>
       </c>
       <c r="J2" t="n">
-        <v>283.461340854662</v>
+        <v>166.374420621993</v>
       </c>
       <c r="K2" t="n">
-        <v>297.066265186449</v>
+        <v>178.86670403732</v>
       </c>
       <c r="L2" t="n">
-        <v>304.014328967341</v>
+        <v>185.423330567905</v>
       </c>
       <c r="M2" t="n">
-        <v>307.928526413252</v>
+        <v>189.175819304807</v>
       </c>
       <c r="N2" t="n">
-        <v>310.325836170511</v>
+        <v>191.49661822277</v>
       </c>
     </row>
     <row r="3">
@@ -1065,28 +1065,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G3" t="n">
-        <v>113.047841442257</v>
+        <v>63.0103414452833</v>
       </c>
       <c r="H3" t="n">
-        <v>178.357141603896</v>
+        <v>110.534369914659</v>
       </c>
       <c r="I3" t="n">
-        <v>229.346314524635</v>
+        <v>153.526849196892</v>
       </c>
       <c r="J3" t="n">
-        <v>254.115281406992</v>
+        <v>176.070809840718</v>
       </c>
       <c r="K3" t="n">
-        <v>265.181403424928</v>
+        <v>186.523788366962</v>
       </c>
       <c r="L3" t="n">
-        <v>270.582520058676</v>
+        <v>191.732315935673</v>
       </c>
       <c r="M3" t="n">
-        <v>273.506639122043</v>
+        <v>194.586309566028</v>
       </c>
       <c r="N3" t="n">
-        <v>275.233244015516</v>
+        <v>196.283890100564</v>
       </c>
     </row>
     <row r="4">
@@ -1109,28 +1109,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>98.6266297996078</v>
+        <v>73.6141298011119</v>
       </c>
       <c r="H4" t="n">
-        <v>152.292176225969</v>
+        <v>118.255347060064</v>
       </c>
       <c r="I4" t="n">
-        <v>195.372915405541</v>
+        <v>157.585622663829</v>
       </c>
       <c r="J4" t="n">
-        <v>215.889400894384</v>
+        <v>177.191959410549</v>
       </c>
       <c r="K4" t="n">
-        <v>224.683816359351</v>
+        <v>185.772661854462</v>
       </c>
       <c r="L4" t="n">
-        <v>228.807209531355</v>
+        <v>189.839655680462</v>
       </c>
       <c r="M4" t="n">
-        <v>230.961514139601</v>
+        <v>191.976697131837</v>
       </c>
       <c r="N4" t="n">
-        <v>232.1935481318</v>
+        <v>193.202523601104</v>
       </c>
     </row>
     <row r="5">
@@ -1153,28 +1153,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>93.6212894107406</v>
+        <v>18.9462894154569</v>
       </c>
       <c r="H5" t="n">
-        <v>141.594336376044</v>
+        <v>37.0665969469494</v>
       </c>
       <c r="I5" t="n">
-        <v>185.593056050798</v>
+        <v>69.9696166610458</v>
       </c>
       <c r="J5" t="n">
-        <v>207.765167229747</v>
+        <v>89.5753795111941</v>
       </c>
       <c r="K5" t="n">
-        <v>217.788810583664</v>
+        <v>99.0075382039711</v>
       </c>
       <c r="L5" t="n">
-        <v>222.689210454105</v>
+        <v>103.758434079803</v>
       </c>
       <c r="M5" t="n">
-        <v>225.341646553546</v>
+        <v>106.367870576697</v>
       </c>
       <c r="N5" t="n">
-        <v>226.913561824919</v>
+        <v>107.925530574442</v>
       </c>
     </row>
     <row r="6">
@@ -1197,28 +1197,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G6" t="n">
-        <v>86.0038727262462</v>
+        <v>35.9663727292728</v>
       </c>
       <c r="H6" t="n">
-        <v>127.369225945419</v>
+        <v>57.6641792119662</v>
       </c>
       <c r="I6" t="n">
-        <v>166.283950575601</v>
+        <v>89.2643756641462</v>
       </c>
       <c r="J6" t="n">
-        <v>185.441397370438</v>
+        <v>106.867198322822</v>
       </c>
       <c r="K6" t="n">
-        <v>193.826256970192</v>
+        <v>114.932615726303</v>
       </c>
       <c r="L6" t="n">
-        <v>197.843089402058</v>
+        <v>118.875905933704</v>
       </c>
       <c r="M6" t="n">
-        <v>199.994968889772</v>
+        <v>121.007801107127</v>
       </c>
       <c r="N6" t="n">
-        <v>201.261281140192</v>
+        <v>122.267597124414</v>
       </c>
     </row>
     <row r="7">
@@ -1241,28 +1241,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>75.4481000486094</v>
+        <v>50.4356000501135</v>
       </c>
       <c r="H7" t="n">
-        <v>107.732156528121</v>
+        <v>73.0101013942496</v>
       </c>
       <c r="I7" t="n">
-        <v>141.086677644302</v>
+        <v>102.901632538931</v>
       </c>
       <c r="J7" t="n">
-        <v>157.61674529353</v>
+        <v>118.774557834411</v>
       </c>
       <c r="K7" t="n">
-        <v>164.781507191585</v>
+        <v>125.819129523402</v>
       </c>
       <c r="L7" t="n">
-        <v>168.193119754213</v>
+        <v>129.205090228531</v>
       </c>
       <c r="M7" t="n">
-        <v>170.010987765366</v>
+        <v>131.016114099001</v>
       </c>
       <c r="N7" t="n">
-        <v>171.072032067195</v>
+        <v>132.074814334467</v>
       </c>
     </row>
     <row r="8">
@@ -1285,28 +1285,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>29.8303343435916</v>
+        <v>-44.8446656516921</v>
       </c>
       <c r="H8" t="n">
-        <v>55.4155191153822</v>
+        <v>-46.8361410938528</v>
       </c>
       <c r="I8" t="n">
-        <v>69.0605057239065</v>
+        <v>-45.0355811101528</v>
       </c>
       <c r="J8" t="n">
-        <v>75.9020374094042</v>
+        <v>-41.2521901830115</v>
       </c>
       <c r="K8" t="n">
-        <v>79.4990084034554</v>
+        <v>-38.6091234560273</v>
       </c>
       <c r="L8" t="n">
-        <v>81.5551043660841</v>
+        <v>-36.9355578656631</v>
       </c>
       <c r="M8" t="n">
-        <v>82.8218561677867</v>
+        <v>-35.8511889750334</v>
       </c>
       <c r="N8" t="n">
-        <v>83.6504148937748</v>
+        <v>-35.1202165387623</v>
       </c>
     </row>
     <row r="9">
@@ -1329,28 +1329,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>27.0885951092812</v>
+        <v>-22.9489048876922</v>
       </c>
       <c r="H9" t="n">
-        <v>51.1009468998355</v>
+        <v>-16.3638207951224</v>
       </c>
       <c r="I9" t="n">
-        <v>63.235321704444</v>
+        <v>-12.443842138827</v>
       </c>
       <c r="J9" t="n">
-        <v>68.8771035694531</v>
+        <v>-8.9781168239954</v>
       </c>
       <c r="K9" t="n">
-        <v>71.5727561861699</v>
+        <v>-6.92270868470105</v>
       </c>
       <c r="L9" t="n">
-        <v>72.9644322483196</v>
+        <v>-5.76636317172253</v>
       </c>
       <c r="M9" t="n">
-        <v>73.7407932765848</v>
+        <v>-5.09448647650869</v>
       </c>
       <c r="N9" t="n">
-        <v>74.2035430759925</v>
+        <v>-4.68531430311303</v>
       </c>
     </row>
     <row r="10">
@@ -1373,28 +1373,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>23.2231837480419</v>
+        <v>-1.78931625045402</v>
       </c>
       <c r="H10" t="n">
-        <v>44.6711283344554</v>
+        <v>11.4606557825138</v>
       </c>
       <c r="I10" t="n">
-        <v>54.4536358298552</v>
+        <v>17.0849575354461</v>
       </c>
       <c r="J10" t="n">
-        <v>58.4683362896304</v>
+        <v>19.9978358305811</v>
       </c>
       <c r="K10" t="n">
-        <v>60.1110303072525</v>
+        <v>21.3410837591026</v>
       </c>
       <c r="L10" t="n">
-        <v>60.8290814682488</v>
+        <v>21.9573673205318</v>
       </c>
       <c r="M10" t="n">
-        <v>61.1686631683165</v>
+        <v>22.2522060192151</v>
       </c>
       <c r="N10" t="n">
-        <v>61.3412608220064</v>
+        <v>22.4003868776534</v>
       </c>
     </row>
     <row r="11">
@@ -1519,28 +1519,28 @@
         <v>#NUM!</v>
       </c>
       <c r="G2" t="n">
-        <v>0.479796440991113</v>
+        <v>0.189481292421914</v>
       </c>
       <c r="H2" t="n">
-        <v>1.58340755419517</v>
+        <v>0.769059674785861</v>
       </c>
       <c r="I2" t="n">
-        <v>8.21171161456527</v>
+        <v>4.55123356035671</v>
       </c>
       <c r="J2" t="n">
-        <v>12.5462691793707</v>
+        <v>7.36389046700948</v>
       </c>
       <c r="K2" t="n">
-        <v>5.52796193522837</v>
+        <v>3.3284436749406</v>
       </c>
       <c r="L2" t="n">
-        <v>4.13634055052738</v>
+        <v>2.52282201252514</v>
       </c>
       <c r="M2" t="n">
-        <v>3.53858676155493</v>
+        <v>2.17392996224038</v>
       </c>
       <c r="N2" t="n">
-        <v>3.20522436352306</v>
+        <v>1.97788760946944</v>
       </c>
     </row>
     <row r="3">
@@ -1563,28 +1563,28 @@
         <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>0.439497835765769</v>
+        <v>0.244966275717961</v>
       </c>
       <c r="H3" t="n">
-        <v>1.43428789083492</v>
+        <v>0.888880068742929</v>
       </c>
       <c r="I3" t="n">
-        <v>7.40068133051637</v>
+        <v>4.95409437443739</v>
       </c>
       <c r="J3" t="n">
-        <v>11.2473846116403</v>
+        <v>7.79306189772123</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9346320193691</v>
+        <v>3.47093064054248</v>
       </c>
       <c r="L3" t="n">
-        <v>3.68147598103122</v>
+        <v>2.60866044026644</v>
       </c>
       <c r="M3" t="n">
-        <v>3.14302472612032</v>
+        <v>2.23610506967484</v>
       </c>
       <c r="N3" t="n">
-        <v>2.84276781545606</v>
+        <v>2.02733331675203</v>
       </c>
     </row>
     <row r="4">
@@ -1607,28 +1607,28 @@
         <v>#NUM!</v>
       </c>
       <c r="G4" t="n">
-        <v>0.383432268964994</v>
+        <v>0.286190787162395</v>
       </c>
       <c r="H4" t="n">
-        <v>1.22468224297352</v>
+        <v>0.950969559107504</v>
       </c>
       <c r="I4" t="n">
-        <v>6.30440777096085</v>
+        <v>5.08506525610956</v>
       </c>
       <c r="J4" t="n">
-        <v>9.5554706981464</v>
+        <v>7.8426850465112</v>
       </c>
       <c r="K4" t="n">
-        <v>4.18103207887568</v>
+        <v>3.45695329186225</v>
       </c>
       <c r="L4" t="n">
-        <v>3.11309188041341</v>
+        <v>2.58290939297669</v>
       </c>
       <c r="M4" t="n">
-        <v>2.65411381622454</v>
+        <v>2.20611648719442</v>
       </c>
       <c r="N4" t="n">
-        <v>2.39822899281897</v>
+        <v>1.99550718490658</v>
       </c>
     </row>
     <row r="5">
@@ -1651,28 +1651,28 @@
         <v>#NUM!</v>
       </c>
       <c r="G5" t="n">
-        <v>0.363972929979722</v>
+        <v>0.0736577814105229</v>
       </c>
       <c r="H5" t="n">
-        <v>1.13865382820494</v>
+        <v>0.298077053026213</v>
       </c>
       <c r="I5" t="n">
-        <v>5.98882553589534</v>
+        <v>2.25782060984969</v>
       </c>
       <c r="J5" t="n">
-        <v>9.19588437104686</v>
+        <v>3.96469169236008</v>
       </c>
       <c r="K5" t="n">
-        <v>4.05272626317745</v>
+        <v>1.84238322095816</v>
       </c>
       <c r="L5" t="n">
-        <v>3.02985196288295</v>
+        <v>1.41171049338801</v>
       </c>
       <c r="M5" t="n">
-        <v>2.58953263151475</v>
+        <v>1.22233540056095</v>
       </c>
       <c r="N5" t="n">
-        <v>2.34369424650612</v>
+        <v>1.11471717699097</v>
       </c>
     </row>
     <row r="6">
@@ -1695,28 +1695,28 @@
         <v>#NUM!</v>
       </c>
       <c r="G6" t="n">
-        <v>0.334358581715749</v>
+        <v>0.139827021667941</v>
       </c>
       <c r="H6" t="n">
-        <v>1.02426029479798</v>
+        <v>0.463715852557997</v>
       </c>
       <c r="I6" t="n">
-        <v>5.36574800052945</v>
+        <v>2.88043520484341</v>
       </c>
       <c r="J6" t="n">
-        <v>8.20781303508003</v>
+        <v>4.73004407782991</v>
       </c>
       <c r="K6" t="n">
-        <v>3.60681873421921</v>
+        <v>2.138725258664</v>
       </c>
       <c r="L6" t="n">
-        <v>2.69180204799905</v>
+        <v>1.61739491643198</v>
       </c>
       <c r="M6" t="n">
-        <v>2.29825913673609</v>
+        <v>1.39057140314404</v>
       </c>
       <c r="N6" t="n">
-        <v>2.07874268447941</v>
+        <v>1.26285031890565</v>
       </c>
     </row>
     <row r="7">
@@ -1739,28 +1739,28 @@
         <v>#NUM!</v>
       </c>
       <c r="G7" t="n">
-        <v>0.293320741563565</v>
+        <v>0.196079259760966</v>
       </c>
       <c r="H7" t="n">
-        <v>0.866345615164543</v>
+        <v>0.587122575506193</v>
       </c>
       <c r="I7" t="n">
-        <v>4.55266762577349</v>
+        <v>3.32049020447076</v>
       </c>
       <c r="J7" t="n">
-        <v>6.97626740798793</v>
+        <v>5.25707516149548</v>
       </c>
       <c r="K7" t="n">
-        <v>3.06633908368197</v>
+        <v>2.34130710968613</v>
       </c>
       <c r="L7" t="n">
-        <v>2.28839220809818</v>
+        <v>1.75793113391123</v>
       </c>
       <c r="M7" t="n">
-        <v>1.9536956761779</v>
+        <v>1.50558278020306</v>
       </c>
       <c r="N7" t="n">
-        <v>1.76693069409114</v>
+        <v>1.36414491921329</v>
       </c>
     </row>
     <row r="8">
@@ -1783,28 +1783,28 @@
         <v>#NUM!</v>
       </c>
       <c r="G8" t="n">
-        <v>0.115971850651164</v>
+        <v>-0.174343297918035</v>
       </c>
       <c r="H8" t="n">
-        <v>0.44563288756915</v>
+        <v>-0.376640427292437</v>
       </c>
       <c r="I8" t="n">
-        <v>2.22848488516712</v>
+        <v>-1.45323453320661</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35949653568213</v>
+        <v>-1.82586126458783</v>
       </c>
       <c r="K8" t="n">
-        <v>1.47935845918714</v>
+        <v>-0.718458437828665</v>
       </c>
       <c r="L8" t="n">
-        <v>1.10961771584183</v>
+        <v>-0.50253567414089</v>
       </c>
       <c r="M8" t="n">
-        <v>0.951754380201275</v>
+        <v>-0.41198697688308</v>
       </c>
       <c r="N8" t="n">
-        <v>0.863989770059041</v>
+        <v>-0.362741868648007</v>
       </c>
     </row>
     <row r="9">
@@ -1827,28 +1827,28 @@
         <v>#NUM!</v>
       </c>
       <c r="G9" t="n">
-        <v>0.105312748767038</v>
+        <v>-0.0892188112807706</v>
       </c>
       <c r="H9" t="n">
-        <v>0.410936555102492</v>
+        <v>-0.131592319787009</v>
       </c>
       <c r="I9" t="n">
-        <v>2.04051443223435</v>
+        <v>-0.401545193292471</v>
       </c>
       <c r="J9" t="n">
-        <v>3.04856626682234</v>
+        <v>-0.397380009768025</v>
       </c>
       <c r="K9" t="n">
-        <v>1.33186267901609</v>
+        <v>-0.12882132568531</v>
       </c>
       <c r="L9" t="n">
-        <v>0.99273524665791</v>
+        <v>-0.078455650091499</v>
       </c>
       <c r="M9" t="n">
-        <v>0.847398576268612</v>
+        <v>-0.0585437231576946</v>
       </c>
       <c r="N9" t="n">
-        <v>0.766417024962825</v>
+        <v>-0.0483926305989214</v>
       </c>
     </row>
     <row r="10">
@@ -1871,28 +1871,28 @@
         <v>#NUM!</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0902851294340598</v>
+        <v>-0.006956352368539</v>
       </c>
       <c r="H10" t="n">
-        <v>0.359230125936503</v>
+        <v>0.0921627228496002</v>
       </c>
       <c r="I10" t="n">
-        <v>1.75714184420199</v>
+        <v>0.551307425747447</v>
       </c>
       <c r="J10" t="n">
-        <v>2.58786430399264</v>
+        <v>0.885123278464898</v>
       </c>
       <c r="K10" t="n">
-        <v>1.11857698556682</v>
+        <v>0.397125868879107</v>
       </c>
       <c r="L10" t="n">
-        <v>0.827624793815165</v>
+        <v>0.298746276661509</v>
       </c>
       <c r="M10" t="n">
-        <v>0.702924877505283</v>
+        <v>0.255713111585231</v>
       </c>
       <c r="N10" t="n">
-        <v>0.633567949424253</v>
+        <v>0.231364125715743</v>
       </c>
     </row>
     <row r="11">
@@ -1981,236 +1981,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.90967816371103</v>
+        <v>0.754170426571747</v>
       </c>
       <c r="B2" t="n">
-        <v>6.30225356456449</v>
+        <v>3.06099908639478</v>
       </c>
       <c r="C2" t="n">
-        <v>32.6841239685602</v>
+        <v>18.1147474337414</v>
       </c>
       <c r="D2" t="n">
-        <v>49.936461050841</v>
+        <v>29.3096397208754</v>
       </c>
       <c r="E2" t="n">
-        <v>22.0023061774377</v>
+        <v>13.2478185791584</v>
       </c>
       <c r="F2" t="n">
-        <v>16.463396874511</v>
+        <v>10.0412960510851</v>
       </c>
       <c r="G2" t="n">
-        <v>14.0842267503679</v>
+        <v>8.65264146134942</v>
       </c>
       <c r="H2" t="n">
-        <v>12.7573830355443</v>
+        <v>7.87235680672412</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.31821560227762</v>
+        <v>1.29212159011375</v>
       </c>
       <c r="B3" t="n">
-        <v>7.56542648474707</v>
+        <v>4.68856835284091</v>
       </c>
       <c r="C3" t="n">
-        <v>39.0363126544068</v>
+        <v>26.1313206559162</v>
       </c>
       <c r="D3" t="n">
-        <v>59.3264866619681</v>
+        <v>41.1059991895861</v>
       </c>
       <c r="E3" t="n">
-        <v>26.0286627324756</v>
+        <v>18.3080891656935</v>
       </c>
       <c r="F3" t="n">
-        <v>19.4186509332103</v>
+        <v>13.7598796661494</v>
       </c>
       <c r="G3" t="n">
-        <v>16.5784865487248</v>
+        <v>11.7947649317095</v>
       </c>
       <c r="H3" t="n">
-        <v>14.9947239033849</v>
+        <v>10.6935582918696</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.97669782076946</v>
+        <v>2.22178351021461</v>
       </c>
       <c r="B4" t="n">
-        <v>9.50756954711907</v>
+        <v>7.3826572339738</v>
       </c>
       <c r="C4" t="n">
-        <v>48.9429773965491</v>
+        <v>39.4768617341222</v>
       </c>
       <c r="D4" t="n">
-        <v>74.1819380001</v>
+        <v>60.8850776955929</v>
       </c>
       <c r="E4" t="n">
-        <v>32.4585854793893</v>
+        <v>26.8373482444891</v>
       </c>
       <c r="F4" t="n">
-        <v>24.1678506644617</v>
+        <v>20.0518876047457</v>
       </c>
       <c r="G4" t="n">
-        <v>20.6046685485175</v>
+        <v>17.1267331190499</v>
       </c>
       <c r="H4" t="n">
-        <v>18.6181591755443</v>
+        <v>15.4917109732972</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.08066565983617</v>
+        <v>0.4210676227189</v>
       </c>
       <c r="B5" t="n">
-        <v>6.50915967547094</v>
+        <v>1.70396927115256</v>
       </c>
       <c r="C5" t="n">
-        <v>34.2353582063963</v>
+        <v>12.9069208780069</v>
       </c>
       <c r="D5" t="n">
-        <v>52.5686369690388</v>
+        <v>22.6643169770647</v>
       </c>
       <c r="E5" t="n">
-        <v>23.1675700854437</v>
+        <v>10.5320566019005</v>
       </c>
       <c r="F5" t="n">
-        <v>17.3202686636861</v>
+        <v>8.07009890924157</v>
       </c>
       <c r="G5" t="n">
-        <v>14.8031657786147</v>
+        <v>6.98752869585924</v>
       </c>
       <c r="H5" t="n">
-        <v>13.3978209207278</v>
+        <v>6.37232486142267</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.4451612892508</v>
+        <v>1.02255374699592</v>
       </c>
       <c r="B6" t="n">
-        <v>7.49040628807842</v>
+        <v>3.39114984298707</v>
       </c>
       <c r="C6" t="n">
-        <v>39.2396666819319</v>
+        <v>21.0645966463212</v>
       </c>
       <c r="D6" t="n">
-        <v>60.0236626193359</v>
+        <v>34.5907696348351</v>
       </c>
       <c r="E6" t="n">
-        <v>26.3766328383189</v>
+        <v>15.6404785066169</v>
       </c>
       <c r="F6" t="n">
-        <v>19.685124073438</v>
+        <v>11.82799442083</v>
       </c>
       <c r="G6" t="n">
-        <v>16.8071483165683</v>
+        <v>10.1692361160856</v>
       </c>
       <c r="H6" t="n">
-        <v>15.2018264831721</v>
+        <v>9.23521298021068</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.9104486775317</v>
+        <v>1.94557882003387</v>
       </c>
       <c r="B7" t="n">
-        <v>8.59623644922025</v>
+        <v>5.82567095092624</v>
       </c>
       <c r="C7" t="n">
-        <v>45.1734350596628</v>
+        <v>32.9472654161574</v>
       </c>
       <c r="D7" t="n">
-        <v>69.2213859253657</v>
+        <v>52.1628554799748</v>
       </c>
       <c r="E7" t="n">
-        <v>30.4254737779325</v>
+        <v>23.2314092237656</v>
       </c>
       <c r="F7" t="n">
-        <v>22.7063658718109</v>
+        <v>17.442913571712</v>
       </c>
       <c r="G7" t="n">
-        <v>19.3853696357137</v>
+        <v>14.9390097277076</v>
       </c>
       <c r="H7" t="n">
-        <v>17.5322108981962</v>
+        <v>13.5356052726517</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.46229351108582</v>
+        <v>-2.19830132756692</v>
       </c>
       <c r="B8" t="n">
-        <v>5.61900216440383</v>
+        <v>-4.74907358768441</v>
       </c>
       <c r="C8" t="n">
-        <v>28.0990513545799</v>
+        <v>-18.3238899445168</v>
       </c>
       <c r="D8" t="n">
-        <v>42.3600206175893</v>
+        <v>-23.0223546865763</v>
       </c>
       <c r="E8" t="n">
-        <v>18.6532875287661</v>
+        <v>-9.059069987439</v>
       </c>
       <c r="F8" t="n">
-        <v>13.9912123204968</v>
+        <v>-6.33649158187327</v>
       </c>
       <c r="G8" t="n">
-        <v>12.0007074691092</v>
+        <v>-5.19475958661825</v>
       </c>
       <c r="H8" t="n">
-        <v>10.8940801350331</v>
+        <v>-4.57382612888229</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.96966197492711</v>
+        <v>-1.66865742358188</v>
       </c>
       <c r="B9" t="n">
-        <v>7.685737160687</v>
+        <v>-2.46116820148982</v>
       </c>
       <c r="C9" t="n">
-        <v>38.1636955973172</v>
+        <v>-7.51009073167867</v>
       </c>
       <c r="D9" t="n">
-        <v>57.0172664193612</v>
+        <v>-7.43218939776854</v>
       </c>
       <c r="E9" t="n">
-        <v>24.9097977727804</v>
+        <v>-2.40934236104066</v>
       </c>
       <c r="F9" t="n">
-        <v>18.5671050219893</v>
+        <v>-1.46735426159325</v>
       </c>
       <c r="G9" t="n">
-        <v>15.848876539875</v>
+        <v>-1.09494193936055</v>
       </c>
       <c r="H9" t="n">
-        <v>14.3342804046012</v>
+        <v>-0.905086283221421</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.17729371815065</v>
+        <v>-0.244806368671642</v>
       </c>
       <c r="B10" t="n">
-        <v>12.6419447993607</v>
+        <v>3.24336955812377</v>
       </c>
       <c r="C10" t="n">
-        <v>61.8369357000277</v>
+        <v>19.4014854005</v>
       </c>
       <c r="D10" t="n">
-        <v>91.0715313589642</v>
+        <v>31.1490568832756</v>
       </c>
       <c r="E10" t="n">
-        <v>39.3647065888636</v>
+        <v>13.975563156569</v>
       </c>
       <c r="F10" t="n">
-        <v>29.1255833032304</v>
+        <v>10.5134109471568</v>
       </c>
       <c r="G10" t="n">
-        <v>24.7371722411997</v>
+        <v>8.99899759995255</v>
       </c>
       <c r="H10" t="n">
-        <v>22.2963790199525</v>
+        <v>8.14211363321951</v>
       </c>
     </row>
     <row r="11">
@@ -2281,236 +2281,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.06797201056941</v>
+        <v>1.21160403040113</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1248146975832</v>
+        <v>4.91761371098694</v>
       </c>
       <c r="C2" t="n">
-        <v>52.5083123591169</v>
+        <v>29.1020440833099</v>
       </c>
       <c r="D2" t="n">
-        <v>80.224860776097</v>
+        <v>47.0870725823129</v>
       </c>
       <c r="E2" t="n">
-        <v>35.3475579304847</v>
+        <v>21.2831341816137</v>
       </c>
       <c r="F2" t="n">
-        <v>26.4490853850171</v>
+        <v>16.1317314194477</v>
       </c>
       <c r="G2" t="n">
-        <v>22.6268563372338</v>
+        <v>13.9008039811934</v>
       </c>
       <c r="H2" t="n">
-        <v>20.4952304660093</v>
+        <v>12.6472464309436</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.21635461933653</v>
+        <v>2.35010187571335</v>
       </c>
       <c r="B3" t="n">
-        <v>13.7599457422659</v>
+        <v>8.52753592597402</v>
       </c>
       <c r="C3" t="n">
-        <v>70.9989774120082</v>
+        <v>47.527466577607</v>
       </c>
       <c r="D3" t="n">
-        <v>107.902606573968</v>
+        <v>74.7633090706375</v>
       </c>
       <c r="E3" t="n">
-        <v>47.3407530513565</v>
+        <v>33.2986268616066</v>
       </c>
       <c r="F3" t="n">
-        <v>35.3185089786657</v>
+        <v>25.0263746542312</v>
       </c>
       <c r="G3" t="n">
-        <v>30.1528374982239</v>
+        <v>21.4522374687418</v>
       </c>
       <c r="H3" t="n">
-        <v>27.2723008738259</v>
+        <v>19.4493703936643</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.32632675597834</v>
+        <v>5.46831185325663</v>
       </c>
       <c r="B4" t="n">
-        <v>23.4002795552079</v>
+        <v>18.1703896331331</v>
       </c>
       <c r="C4" t="n">
-        <v>120.459739754468</v>
+        <v>97.1614875876098</v>
       </c>
       <c r="D4" t="n">
-        <v>182.578531615941</v>
+        <v>149.851950254641</v>
       </c>
       <c r="E4" t="n">
-        <v>79.8879219783853</v>
+        <v>66.0527854494429</v>
       </c>
       <c r="F4" t="n">
-        <v>59.482547983915</v>
+        <v>49.35223173864</v>
       </c>
       <c r="G4" t="n">
-        <v>50.7127506970283</v>
+        <v>42.152764790939</v>
       </c>
       <c r="H4" t="n">
-        <v>45.8235017216475</v>
+        <v>38.1286053987878</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.38040501190992</v>
+        <v>1.29121272206713</v>
       </c>
       <c r="B5" t="n">
-        <v>19.9604750625657</v>
+        <v>5.22525761234426</v>
       </c>
       <c r="C5" t="n">
-        <v>104.983446067842</v>
+        <v>39.5793443646511</v>
       </c>
       <c r="D5" t="n">
-        <v>161.202831027133</v>
+        <v>69.5006047455816</v>
       </c>
       <c r="E5" t="n">
-        <v>71.0438409881665</v>
+        <v>32.2967731075911</v>
       </c>
       <c r="F5" t="n">
-        <v>53.1129681825528</v>
+        <v>24.7471280566951</v>
       </c>
       <c r="G5" t="n">
-        <v>45.3942192391658</v>
+        <v>21.4274037258995</v>
       </c>
       <c r="H5" t="n">
-        <v>41.0846996715531</v>
+        <v>19.5408682270177</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-574.596468541898</v>
+        <v>-240.29325774995</v>
       </c>
       <c r="B6" t="n">
-        <v>-1760.19513313686</v>
+        <v>-796.897420486247</v>
       </c>
       <c r="C6" t="n">
-        <v>-9221.05793238191</v>
+        <v>-4950.03863239805</v>
       </c>
       <c r="D6" t="n">
-        <v>-14105.1572841595</v>
+        <v>-8128.59837250759</v>
       </c>
       <c r="E6" t="n">
-        <v>-6198.33143422949</v>
+        <v>-3675.40732618141</v>
       </c>
       <c r="F6" t="n">
-        <v>-4625.87184948945</v>
+        <v>-2779.49919051131</v>
       </c>
       <c r="G6" t="n">
-        <v>-3949.56689009219</v>
+        <v>-2389.70213775219</v>
       </c>
       <c r="H6" t="n">
-        <v>-3572.32704894236</v>
+        <v>-2170.21297858322</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-552.691093122977</v>
+        <v>-369.463338454528</v>
       </c>
       <c r="B7" t="n">
-        <v>-1632.41611389362</v>
+        <v>-1106.2886869982</v>
       </c>
       <c r="C7" t="n">
-        <v>-8578.38703564389</v>
+        <v>-6256.65048789391</v>
       </c>
       <c r="D7" t="n">
-        <v>-13145.0672021551</v>
+        <v>-9905.67050304191</v>
       </c>
       <c r="E7" t="n">
-        <v>-5777.76495113159</v>
+        <v>-4411.61978144187</v>
       </c>
       <c r="F7" t="n">
-        <v>-4311.91461008153</v>
+        <v>-3312.39064396597</v>
       </c>
       <c r="G7" t="n">
-        <v>-3681.26097438764</v>
+        <v>-2836.90198020733</v>
       </c>
       <c r="H7" t="n">
-        <v>-3329.3481108227</v>
+        <v>-2570.39697417633</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.742506454021844</v>
+        <v>-1.11622797422605</v>
       </c>
       <c r="B8" t="n">
-        <v>2.85315180612033</v>
+        <v>-2.41142955415426</v>
       </c>
       <c r="C8" t="n">
-        <v>14.2678106854037</v>
+        <v>-9.30429249903932</v>
       </c>
       <c r="D8" t="n">
-        <v>21.5090804018568</v>
+        <v>-11.6900244800168</v>
       </c>
       <c r="E8" t="n">
-        <v>9.47155018731468</v>
+        <v>-4.59990958184199</v>
       </c>
       <c r="F8" t="n">
-        <v>7.10429566212381</v>
+        <v>-3.21747026826535</v>
       </c>
       <c r="G8" t="n">
-        <v>6.09358017462935</v>
+        <v>-2.63773482608959</v>
       </c>
       <c r="H8" t="n">
-        <v>5.53166977051469</v>
+        <v>-2.32244443028889</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.01067210453501</v>
+        <v>-0.856220778746507</v>
       </c>
       <c r="B9" t="n">
-        <v>3.94370214279125</v>
+        <v>-1.26287356789046</v>
       </c>
       <c r="C9" t="n">
-        <v>19.5825390534848</v>
+        <v>-3.85357452276321</v>
       </c>
       <c r="D9" t="n">
-        <v>29.2566751962716</v>
+        <v>-3.81360182384772</v>
       </c>
       <c r="E9" t="n">
-        <v>12.7817047082351</v>
+        <v>-1.23628071495284</v>
       </c>
       <c r="F9" t="n">
-        <v>9.52714493480079</v>
+        <v>-0.752928186938141</v>
       </c>
       <c r="G9" t="n">
-        <v>8.13236870639379</v>
+        <v>-0.56183613649653</v>
       </c>
       <c r="H9" t="n">
-        <v>7.35519978957271</v>
+        <v>-0.464417483960931</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.72921164355909</v>
+        <v>-0.133233519049922</v>
       </c>
       <c r="B10" t="n">
-        <v>6.88025725144788</v>
+        <v>1.76517278595734</v>
       </c>
       <c r="C10" t="n">
-        <v>33.6541593884311</v>
+        <v>10.55907241601</v>
       </c>
       <c r="D10" t="n">
-        <v>49.5648077869052</v>
+        <v>16.9525755647784</v>
       </c>
       <c r="E10" t="n">
-        <v>21.4238641488803</v>
+        <v>7.6060662561914</v>
       </c>
       <c r="F10" t="n">
-        <v>15.8513194690452</v>
+        <v>5.72182310986558</v>
       </c>
       <c r="G10" t="n">
-        <v>13.4629688227587</v>
+        <v>4.89761816520246</v>
       </c>
       <c r="H10" t="n">
-        <v>12.134590513385</v>
+        <v>4.431267281748</v>
       </c>
     </row>
     <row r="11">
@@ -2581,236 +2581,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.73688831593504</v>
+        <v>1.08085240116946</v>
       </c>
       <c r="B2" t="n">
-        <v>9.03218378504041</v>
+        <v>4.38692382509192</v>
       </c>
       <c r="C2" t="n">
-        <v>46.8418180120432</v>
+        <v>25.9614638422515</v>
       </c>
       <c r="D2" t="n">
-        <v>71.5673035311896</v>
+        <v>42.0056175017708</v>
       </c>
       <c r="E2" t="n">
-        <v>31.5329859475561</v>
+        <v>18.986340510103</v>
       </c>
       <c r="F2" t="n">
-        <v>23.5948022042047</v>
+        <v>14.3908572456286</v>
       </c>
       <c r="G2" t="n">
-        <v>20.185053358496</v>
+        <v>12.4006828834043</v>
       </c>
       <c r="H2" t="n">
-        <v>18.2834643215685</v>
+        <v>11.2824044242751</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.56641670207838</v>
+        <v>1.43046333858074</v>
       </c>
       <c r="B3" t="n">
-        <v>8.37542326508586</v>
+        <v>5.19055264650317</v>
       </c>
       <c r="C3" t="n">
-        <v>43.2157581397495</v>
+        <v>28.9290856781482</v>
       </c>
       <c r="D3" t="n">
-        <v>65.678311411292</v>
+        <v>45.5070368658233</v>
       </c>
       <c r="E3" t="n">
-        <v>28.8154366245141</v>
+        <v>20.2682553649508</v>
       </c>
       <c r="F3" t="n">
-        <v>21.4977200730843</v>
+        <v>15.2330891738884</v>
       </c>
       <c r="G3" t="n">
-        <v>18.3534718393004</v>
+        <v>13.0575782891321</v>
       </c>
       <c r="H3" t="n">
-        <v>16.6001427265402</v>
+        <v>11.8384703208534</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.30490745367428</v>
+        <v>1.7203645386553</v>
       </c>
       <c r="B4" t="n">
-        <v>7.36187185766029</v>
+        <v>5.71651632482802</v>
       </c>
       <c r="C4" t="n">
-        <v>37.8973749432039</v>
+        <v>30.5676015293775</v>
       </c>
       <c r="D4" t="n">
-        <v>57.4403288877458</v>
+        <v>47.1443451259807</v>
       </c>
       <c r="E4" t="n">
-        <v>25.1332315578574</v>
+        <v>20.7806125210202</v>
       </c>
       <c r="F4" t="n">
-        <v>18.7135754080021</v>
+        <v>15.5265156167146</v>
       </c>
       <c r="G4" t="n">
-        <v>15.9545432480915</v>
+        <v>13.2615190389007</v>
       </c>
       <c r="H4" t="n">
-        <v>14.416355452</v>
+        <v>11.9954937459155</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.21655637470859</v>
+        <v>0.448568043072551</v>
       </c>
       <c r="B5" t="n">
-        <v>6.93428052914434</v>
+        <v>1.81525750301379</v>
       </c>
       <c r="C5" t="n">
-        <v>36.471309609058</v>
+        <v>13.7498870204155</v>
       </c>
       <c r="D5" t="n">
-        <v>56.0019563126924</v>
+        <v>24.1445501041644</v>
       </c>
       <c r="E5" t="n">
-        <v>24.6806712633695</v>
+        <v>11.219917572712</v>
       </c>
       <c r="F5" t="n">
-        <v>18.4514757268506</v>
+        <v>8.59716653526003</v>
       </c>
       <c r="G5" t="n">
-        <v>15.7699778997843</v>
+        <v>7.44389239138282</v>
       </c>
       <c r="H5" t="n">
-        <v>14.272848320754</v>
+        <v>6.78850887288283</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.07913143803652</v>
+        <v>0.869481964976093</v>
       </c>
       <c r="B6" t="n">
-        <v>6.36912553199386</v>
+        <v>2.88350968119872</v>
       </c>
       <c r="C6" t="n">
-        <v>33.36566179709</v>
+        <v>17.9113195147729</v>
       </c>
       <c r="D6" t="n">
-        <v>51.0383852904021</v>
+        <v>29.4126841161062</v>
       </c>
       <c r="E6" t="n">
-        <v>22.4281673379912</v>
+        <v>13.2991679166512</v>
       </c>
       <c r="F6" t="n">
-        <v>16.7383478965819</v>
+        <v>10.0573958688848</v>
       </c>
       <c r="G6" t="n">
-        <v>14.2911924061364</v>
+        <v>8.64694636002859</v>
       </c>
       <c r="H6" t="n">
-        <v>12.9261801647545</v>
+        <v>7.85274236449337</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.86560736150923</v>
+        <v>1.24712254748635</v>
       </c>
       <c r="B7" t="n">
-        <v>5.51021638853983</v>
+        <v>3.73427461397319</v>
       </c>
       <c r="C7" t="n">
-        <v>28.9563233471751</v>
+        <v>21.1193076093376</v>
       </c>
       <c r="D7" t="n">
-        <v>44.3711404888111</v>
+        <v>33.4365652732672</v>
       </c>
       <c r="E7" t="n">
-        <v>19.5028307132547</v>
+        <v>14.8914112111563</v>
       </c>
       <c r="F7" t="n">
-        <v>14.5548566619969</v>
+        <v>11.1809660884153</v>
       </c>
       <c r="G7" t="n">
-        <v>12.4260869388139</v>
+        <v>9.57595532840854</v>
       </c>
       <c r="H7" t="n">
-        <v>11.2382059741202</v>
+        <v>8.67636836687257</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8.54722306654034</v>
+        <v>-12.849247891577</v>
       </c>
       <c r="B8" t="n">
-        <v>32.8435191337683</v>
+        <v>-27.7587167047008</v>
       </c>
       <c r="C8" t="n">
-        <v>164.241212906314</v>
+        <v>-107.104609037227</v>
       </c>
       <c r="D8" t="n">
-        <v>247.597724107342</v>
+        <v>-134.567512972865</v>
       </c>
       <c r="E8" t="n">
-        <v>109.029964384025</v>
+        <v>-52.9509919664121</v>
       </c>
       <c r="F8" t="n">
-        <v>81.7797601972639</v>
+        <v>-37.0373024286417</v>
       </c>
       <c r="G8" t="n">
-        <v>70.145099405254</v>
+        <v>-30.3637871790222</v>
       </c>
       <c r="H8" t="n">
-        <v>63.67677372086</v>
+        <v>-26.7343812269938</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8.9099800199504</v>
+        <v>-7.54835321670193</v>
       </c>
       <c r="B9" t="n">
-        <v>34.7672673849765</v>
+        <v>-11.1333618560734</v>
       </c>
       <c r="C9" t="n">
-        <v>172.637624926556</v>
+        <v>-33.9727116728991</v>
       </c>
       <c r="D9" t="n">
-        <v>257.923801675411</v>
+        <v>-33.6203165221056</v>
       </c>
       <c r="E9" t="n">
-        <v>112.682177592778</v>
+        <v>-10.8989220340139</v>
       </c>
       <c r="F9" t="n">
-        <v>83.9903175672404</v>
+        <v>-6.63773648443854</v>
       </c>
       <c r="G9" t="n">
-        <v>71.6941155926883</v>
+        <v>-4.95308886849444</v>
       </c>
       <c r="H9" t="n">
-        <v>64.842675358085</v>
+        <v>-4.09425617313472</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8.89440928934943</v>
+        <v>-0.685302723876695</v>
       </c>
       <c r="B10" t="n">
-        <v>35.3894355490444</v>
+        <v>9.07937977586793</v>
       </c>
       <c r="C10" t="n">
-        <v>173.104240307805</v>
+        <v>54.3118664124722</v>
       </c>
       <c r="D10" t="n">
-        <v>254.942585221843</v>
+        <v>87.1976233466823</v>
       </c>
       <c r="E10" t="n">
-        <v>110.196237117258</v>
+        <v>39.122721973601</v>
       </c>
       <c r="F10" t="n">
-        <v>81.5331793878838</v>
+        <v>29.4308893939988</v>
       </c>
       <c r="G10" t="n">
-        <v>69.248408895111</v>
+        <v>25.1914915484865</v>
       </c>
       <c r="H10" t="n">
-        <v>62.415734353118</v>
+        <v>22.7927593601255</v>
       </c>
     </row>
     <row r="11">
@@ -2881,236 +2881,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0717813576443413</v>
+        <v>0.0283479060206313</v>
       </c>
       <c r="B2" t="n">
-        <v>0.236890343975145</v>
+        <v>0.11505743446452</v>
       </c>
       <c r="C2" t="n">
-        <v>1.22853726688693</v>
+        <v>0.680900682056008</v>
       </c>
       <c r="D2" t="n">
-        <v>1.87702149938053</v>
+        <v>1.10169649064978</v>
       </c>
       <c r="E2" t="n">
-        <v>0.827027003154203</v>
+        <v>0.49796160500153</v>
       </c>
       <c r="F2" t="n">
-        <v>0.61882939311277</v>
+        <v>0.377434206848229</v>
       </c>
       <c r="G2" t="n">
-        <v>0.529400679509022</v>
+        <v>0.325237185567653</v>
       </c>
       <c r="H2" t="n">
-        <v>0.479527017526723</v>
+        <v>0.295907692817311</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0655778551263183</v>
+        <v>0.0365516315043419</v>
       </c>
       <c r="B3" t="n">
-        <v>0.214011346269139</v>
+        <v>0.13263056977546</v>
       </c>
       <c r="C3" t="n">
-        <v>1.10426211151425</v>
+        <v>0.739204739433821</v>
       </c>
       <c r="D3" t="n">
-        <v>1.6782320607495</v>
+        <v>1.16280955793275</v>
       </c>
       <c r="E3" t="n">
-        <v>0.736300744471341</v>
+        <v>0.51790058602314</v>
       </c>
       <c r="F3" t="n">
-        <v>0.549316239781787</v>
+        <v>0.389240497913903</v>
       </c>
       <c r="G3" t="n">
-        <v>0.468973458740312</v>
+        <v>0.33365118636105</v>
       </c>
       <c r="H3" t="n">
-        <v>0.424171863406153</v>
+        <v>0.302500171148916</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0569531360324321</v>
+        <v>0.0425093664560007</v>
       </c>
       <c r="B4" t="n">
-        <v>0.181908253493769</v>
+        <v>0.141252322890686</v>
       </c>
       <c r="C4" t="n">
-        <v>0.936425602239118</v>
+        <v>0.755310485595677</v>
       </c>
       <c r="D4" t="n">
-        <v>1.41932243729632</v>
+        <v>1.16491371349409</v>
       </c>
       <c r="E4" t="n">
-        <v>0.621029861119772</v>
+        <v>0.513478773241095</v>
       </c>
       <c r="F4" t="n">
-        <v>0.462403297002714</v>
+        <v>0.383652608098768</v>
       </c>
       <c r="G4" t="n">
-        <v>0.394228961555644</v>
+        <v>0.327685650291594</v>
       </c>
       <c r="H4" t="n">
-        <v>0.356221093320164</v>
+        <v>0.296402784414726</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0537089291201388</v>
+        <v>0.0108691615091948</v>
       </c>
       <c r="B5" t="n">
-        <v>0.168023148740322</v>
+        <v>0.0439851373403419</v>
       </c>
       <c r="C5" t="n">
-        <v>0.883728925220345</v>
+        <v>0.333170730875951</v>
       </c>
       <c r="D5" t="n">
-        <v>1.35697207456902</v>
+        <v>0.585041709283254</v>
       </c>
       <c r="E5" t="n">
-        <v>0.59803235263801</v>
+        <v>0.271867552985569</v>
       </c>
       <c r="F5" t="n">
-        <v>0.447093975719732</v>
+        <v>0.208316203163123</v>
       </c>
       <c r="G5" t="n">
-        <v>0.382119144322247</v>
+        <v>0.180371450682946</v>
       </c>
       <c r="H5" t="n">
-        <v>0.34584250035267</v>
+        <v>0.16449098522614</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0493389477263647</v>
+        <v>0.0206332915919377</v>
       </c>
       <c r="B6" t="n">
-        <v>0.151142898393411</v>
+        <v>0.0684272917172982</v>
       </c>
       <c r="C6" t="n">
-        <v>0.791785749157276</v>
+        <v>0.425045594079499</v>
       </c>
       <c r="D6" t="n">
-        <v>1.21116932667774</v>
+        <v>0.697979385789631</v>
       </c>
       <c r="E6" t="n">
-        <v>0.53223291016769</v>
+        <v>0.315596666299977</v>
       </c>
       <c r="F6" t="n">
-        <v>0.397210323881724</v>
+        <v>0.2386676089641</v>
       </c>
       <c r="G6" t="n">
-        <v>0.339137960291571</v>
+        <v>0.205196856074203</v>
       </c>
       <c r="H6" t="n">
-        <v>0.30674545908107</v>
+        <v>0.186349952649575</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0431023942516235</v>
+        <v>0.0288131194327836</v>
       </c>
       <c r="B7" t="n">
-        <v>0.12730627252589</v>
+        <v>0.0862754832426754</v>
       </c>
       <c r="C7" t="n">
-        <v>0.668997609431472</v>
+        <v>0.487933710854666</v>
       </c>
       <c r="D7" t="n">
-        <v>1.02513660173154</v>
+        <v>0.772507682250254</v>
       </c>
       <c r="E7" t="n">
-        <v>0.450587146989674</v>
+        <v>0.344046389518456</v>
       </c>
       <c r="F7" t="n">
-        <v>0.336270741134806</v>
+        <v>0.258321455200007</v>
       </c>
       <c r="G7" t="n">
-        <v>0.287088328065143</v>
+        <v>0.221239801266167</v>
       </c>
       <c r="H7" t="n">
-        <v>0.259643907164699</v>
+        <v>0.200456032569855</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>259.545001757269</v>
+        <v>-390.18030074051</v>
       </c>
       <c r="B8" t="n">
-        <v>997.326402379622</v>
+        <v>-842.921276280359</v>
       </c>
       <c r="C8" t="n">
-        <v>4987.34917300335</v>
+        <v>-3252.33888531595</v>
       </c>
       <c r="D8" t="n">
-        <v>7518.55324685559</v>
+        <v>-4086.27751014702</v>
       </c>
       <c r="E8" t="n">
-        <v>3310.80423166036</v>
+        <v>-1607.90998386033</v>
       </c>
       <c r="F8" t="n">
-        <v>2483.32444805367</v>
+        <v>-1124.67483872716</v>
       </c>
       <c r="G8" t="n">
-        <v>2130.02630289016</v>
+        <v>-922.026854264207</v>
       </c>
       <c r="H8" t="n">
-        <v>1933.60910539187</v>
+        <v>-811.81630203413</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>314.253242320764</v>
+        <v>-266.228932861755</v>
       </c>
       <c r="B9" t="n">
-        <v>1226.23468042554</v>
+        <v>-392.67148224434</v>
       </c>
       <c r="C9" t="n">
-        <v>6088.89506578581</v>
+        <v>-1198.21085678444</v>
       </c>
       <c r="D9" t="n">
-        <v>9096.92174019566</v>
+        <v>-1185.7819491475</v>
       </c>
       <c r="E9" t="n">
-        <v>3974.27823418305</v>
+        <v>-384.402835844873</v>
       </c>
       <c r="F9" t="n">
-        <v>2962.32197602648</v>
+        <v>-234.111659872976</v>
       </c>
       <c r="G9" t="n">
-        <v>2528.63735158492</v>
+        <v>-174.694469902518</v>
       </c>
       <c r="H9" t="n">
-        <v>2286.98840248851</v>
+        <v>-144.403609707146</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>404.116239346927</v>
+        <v>-31.1366332015863</v>
       </c>
       <c r="B10" t="n">
-        <v>1607.91404369208</v>
+        <v>412.520347474887</v>
       </c>
       <c r="C10" t="n">
-        <v>7864.96689464958</v>
+        <v>2467.65203764603</v>
       </c>
       <c r="D10" t="n">
-        <v>11583.2806246732</v>
+        <v>3961.81179440962</v>
       </c>
       <c r="E10" t="n">
-        <v>5006.75058739801</v>
+        <v>1777.53538910322</v>
       </c>
       <c r="F10" t="n">
-        <v>3704.44857711737</v>
+        <v>1337.18833433716</v>
       </c>
       <c r="G10" t="n">
-        <v>3146.29175171423</v>
+        <v>1144.57188745571</v>
       </c>
       <c r="H10" t="n">
-        <v>2835.85014162349</v>
+        <v>1035.58582670386</v>
       </c>
     </row>
     <row r="11">
@@ -3181,236 +3181,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.09032518353535</v>
+        <v>2.80011243245718</v>
       </c>
       <c r="B2" t="n">
-        <v>23.3992449675508</v>
+        <v>11.3649929718355</v>
       </c>
       <c r="C2" t="n">
-        <v>121.350849415242</v>
+        <v>67.2571181697159</v>
       </c>
       <c r="D2" t="n">
-        <v>185.405977872922</v>
+        <v>108.821936901362</v>
       </c>
       <c r="E2" t="n">
-        <v>81.6909930428194</v>
+        <v>49.1870009741222</v>
       </c>
       <c r="F2" t="n">
-        <v>61.1259214689047</v>
+        <v>37.2817030739827</v>
       </c>
       <c r="G2" t="n">
-        <v>52.2924488096451</v>
+        <v>32.1258538864412</v>
       </c>
       <c r="H2" t="n">
-        <v>47.366093372063</v>
+        <v>29.2287835621596</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8.35045887954961</v>
+        <v>4.65435923864125</v>
       </c>
       <c r="B3" t="n">
-        <v>27.2514699258635</v>
+        <v>16.8887213061157</v>
       </c>
       <c r="C3" t="n">
-        <v>140.612945279811</v>
+        <v>94.1277931143103</v>
       </c>
       <c r="D3" t="n">
-        <v>213.700307621166</v>
+        <v>148.068176056703</v>
       </c>
       <c r="E3" t="n">
-        <v>93.758008368013</v>
+        <v>65.947682170307</v>
       </c>
       <c r="F3" t="n">
-        <v>69.9480436395931</v>
+        <v>49.5645483650624</v>
       </c>
       <c r="G3" t="n">
-        <v>59.717469796286</v>
+        <v>42.485996323822</v>
       </c>
       <c r="H3" t="n">
-        <v>54.0125884936651</v>
+        <v>38.5193330182886</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.28521311033488</v>
+        <v>5.43762495608551</v>
       </c>
       <c r="B4" t="n">
-        <v>23.268962616497</v>
+        <v>18.0684216230426</v>
       </c>
       <c r="C4" t="n">
-        <v>119.783747648256</v>
+        <v>96.6162398660815</v>
       </c>
       <c r="D4" t="n">
-        <v>181.553943264782</v>
+        <v>149.011015883713</v>
       </c>
       <c r="E4" t="n">
-        <v>79.4396094986379</v>
+        <v>65.6821125453827</v>
       </c>
       <c r="F4" t="n">
-        <v>59.1487457278547</v>
+        <v>49.0752784665571</v>
       </c>
       <c r="G4" t="n">
-        <v>50.4281625082662</v>
+        <v>41.916213256694</v>
       </c>
       <c r="H4" t="n">
-        <v>45.5663508635603</v>
+        <v>37.9146365132251</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9.68167993746064</v>
+        <v>1.95929698551992</v>
       </c>
       <c r="B5" t="n">
-        <v>30.2881918302515</v>
+        <v>7.92884961049728</v>
       </c>
       <c r="C5" t="n">
-        <v>159.302759254817</v>
+        <v>60.0580282220019</v>
       </c>
       <c r="D5" t="n">
-        <v>244.610524269847</v>
+        <v>105.460799016779</v>
       </c>
       <c r="E5" t="n">
-        <v>107.802518600521</v>
+        <v>49.0073936774873</v>
       </c>
       <c r="F5" t="n">
-        <v>80.5940622126867</v>
+        <v>37.5514991241212</v>
       </c>
       <c r="G5" t="n">
-        <v>68.8815679982927</v>
+        <v>32.5141216549215</v>
       </c>
       <c r="H5" t="n">
-        <v>62.3422669570631</v>
+        <v>29.6514769079599</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11.1174228420487</v>
+        <v>4.64924847045905</v>
       </c>
       <c r="B6" t="n">
-        <v>34.056654802033</v>
+        <v>15.4185520975534</v>
       </c>
       <c r="C6" t="n">
-        <v>178.411121017605</v>
+        <v>95.7744705610436</v>
       </c>
       <c r="D6" t="n">
-        <v>272.909783416412</v>
+        <v>157.273965587845</v>
       </c>
       <c r="E6" t="n">
-        <v>119.926722912789</v>
+        <v>71.1126148505782</v>
       </c>
       <c r="F6" t="n">
-        <v>89.5024180959687</v>
+        <v>53.7783809713635</v>
       </c>
       <c r="G6" t="n">
-        <v>76.4171162964751</v>
+        <v>46.2364991545394</v>
       </c>
       <c r="H6" t="n">
-        <v>69.1181942589407</v>
+        <v>41.9897731036131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9.75291465698857</v>
+        <v>6.51963538705215</v>
       </c>
       <c r="B7" t="n">
-        <v>28.8059917042211</v>
+        <v>19.521825635581</v>
       </c>
       <c r="C7" t="n">
-        <v>151.376198556969</v>
+        <v>110.406299298653</v>
       </c>
       <c r="D7" t="n">
-        <v>231.9608913156</v>
+        <v>174.797749119725</v>
       </c>
       <c r="E7" t="n">
-        <v>101.955774532426</v>
+        <v>77.848461397064</v>
       </c>
       <c r="F7" t="n">
-        <v>76.0890409192648</v>
+        <v>58.4512102025487</v>
       </c>
       <c r="G7" t="n">
-        <v>64.9603812329153</v>
+        <v>50.060627441752</v>
       </c>
       <c r="H7" t="n">
-        <v>58.7504455785305</v>
+        <v>45.3578185638419</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.08485122732096</v>
+        <v>-4.63753172461976</v>
       </c>
       <c r="B8" t="n">
-        <v>11.8538348093394</v>
+        <v>-10.0186353659789</v>
       </c>
       <c r="C8" t="n">
-        <v>59.2776979454457</v>
+        <v>-38.656038583296</v>
       </c>
       <c r="D8" t="n">
-        <v>89.362607849145</v>
+        <v>-48.5679096380365</v>
       </c>
       <c r="E8" t="n">
-        <v>39.350935014378</v>
+        <v>-19.1109944462426</v>
       </c>
       <c r="F8" t="n">
-        <v>29.5158312413927</v>
+        <v>-13.3674489321477</v>
       </c>
       <c r="G8" t="n">
-        <v>25.316666513354</v>
+        <v>-10.95885358509</v>
       </c>
       <c r="H8" t="n">
-        <v>22.9821278835706</v>
+        <v>-9.64893370603703</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.50164889650402</v>
+        <v>-2.96652547508563</v>
       </c>
       <c r="B9" t="n">
-        <v>13.6636404571579</v>
+        <v>-4.37544463291807</v>
       </c>
       <c r="C9" t="n">
-        <v>67.8471048717923</v>
+        <v>-13.3513776769747</v>
       </c>
       <c r="D9" t="n">
-        <v>101.364828371843</v>
+        <v>-13.2128853247869</v>
       </c>
       <c r="E9" t="n">
-        <v>44.2844340772852</v>
+        <v>-4.28330907903658</v>
       </c>
       <c r="F9" t="n">
-        <v>33.0084469513756</v>
+        <v>-2.60865036554235</v>
       </c>
       <c r="G9" t="n">
-        <v>28.1760026609315</v>
+        <v>-1.94657879499335</v>
       </c>
       <c r="H9" t="n">
-        <v>25.483366080014</v>
+        <v>-1.60905496741414</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.0019805536825</v>
+        <v>-0.231298716253922</v>
       </c>
       <c r="B10" t="n">
-        <v>11.9444016873888</v>
+        <v>3.06441053474922</v>
       </c>
       <c r="C10" t="n">
-        <v>58.4249663197165</v>
+        <v>18.3309719061027</v>
       </c>
       <c r="D10" t="n">
-        <v>86.0464881077556</v>
+        <v>29.430349008958</v>
       </c>
       <c r="E10" t="n">
-        <v>37.1926847700968</v>
+        <v>13.2044351402304</v>
       </c>
       <c r="F10" t="n">
-        <v>27.5185243943543</v>
+        <v>9.93331369899522</v>
       </c>
       <c r="G10" t="n">
-        <v>23.3722521770507</v>
+        <v>8.50246096020895</v>
       </c>
       <c r="H10" t="n">
-        <v>21.0661343183565</v>
+        <v>7.69285718004847</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_6.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_6.xlsx
@@ -637,28 +637,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>276.166762970885</v>
+        <v>297.216762939616</v>
       </c>
       <c r="I5" t="n">
-        <v>161.41899700805</v>
+        <v>188.88876163263</v>
       </c>
       <c r="J5" t="n">
-        <v>100.959508575313</v>
+        <v>130.412949014979</v>
       </c>
       <c r="K5" t="n">
-        <v>66.9821020354688</v>
+        <v>96.671736245233</v>
       </c>
       <c r="L5" t="n">
-        <v>45.2686976209134</v>
+        <v>74.9946715363091</v>
       </c>
       <c r="M5" t="n">
-        <v>30.260054230837</v>
+        <v>59.9962744177698</v>
       </c>
       <c r="N5" t="n">
-        <v>19.3476709425518</v>
+        <v>49.0886568390619</v>
       </c>
       <c r="O5" t="n">
-        <v>11.1067743893329</v>
+        <v>40.8505381561145</v>
       </c>
     </row>
     <row r="6">
@@ -684,28 +684,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>293.1868462847</v>
+        <v>307.224346263849</v>
       </c>
       <c r="I6" t="n">
-        <v>182.016579273066</v>
+        <v>200.100040166797</v>
       </c>
       <c r="J6" t="n">
-        <v>120.254267578413</v>
+        <v>139.771055953038</v>
       </c>
       <c r="K6" t="n">
-        <v>84.2739208470969</v>
+        <v>103.976596989415</v>
       </c>
       <c r="L6" t="n">
-        <v>61.1937751432458</v>
+        <v>80.9258040028391</v>
       </c>
       <c r="M6" t="n">
-        <v>45.377526084738</v>
+        <v>65.1175728470531</v>
       </c>
       <c r="N6" t="n">
-        <v>33.9876014729822</v>
+        <v>53.731219933595</v>
       </c>
       <c r="O6" t="n">
-        <v>25.4488409393044</v>
+        <v>45.194471557341</v>
       </c>
     </row>
     <row r="7">
@@ -731,28 +731,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>307.656073605541</v>
+        <v>314.668573595124</v>
       </c>
       <c r="I7" t="n">
-        <v>197.36250145535</v>
+        <v>206.219833547116</v>
       </c>
       <c r="J7" t="n">
-        <v>133.891524453198</v>
+        <v>143.504334912525</v>
       </c>
       <c r="K7" t="n">
-        <v>96.1812803586853</v>
+        <v>105.902653793024</v>
       </c>
       <c r="L7" t="n">
-        <v>72.0802889403447</v>
+        <v>81.8196981772802</v>
       </c>
       <c r="M7" t="n">
-        <v>55.706710379565</v>
+        <v>65.4510274707899</v>
       </c>
       <c r="N7" t="n">
-        <v>43.9959144648564</v>
+        <v>53.7423740102523</v>
       </c>
       <c r="O7" t="n">
-        <v>35.2560581493574</v>
+        <v>45.0037003365912</v>
       </c>
     </row>
     <row r="8">
@@ -778,28 +778,28 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>212.375807903736</v>
+        <v>266.000807930288</v>
       </c>
       <c r="I8" t="n">
-        <v>77.5162589672474</v>
+        <v>155.562935242816</v>
       </c>
       <c r="J8" t="n">
-        <v>-14.045689195886</v>
+        <v>72.7835029649257</v>
       </c>
       <c r="K8" t="n">
-        <v>-63.8454676587368</v>
+        <v>24.721654691844</v>
       </c>
       <c r="L8" t="n">
-        <v>-92.347964039085</v>
+        <v>-3.38530595420321</v>
       </c>
       <c r="M8" t="n">
-        <v>-110.433937714629</v>
+        <v>-21.3416730890296</v>
       </c>
       <c r="N8" t="n">
-        <v>-122.871388609178</v>
+        <v>-33.7208561709312</v>
       </c>
       <c r="O8" t="n">
-        <v>-131.938972723872</v>
+        <v>-42.7564251457126</v>
       </c>
     </row>
     <row r="9">
@@ -825,28 +825,28 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>234.271568667736</v>
+        <v>270.271568685561</v>
       </c>
       <c r="I9" t="n">
-        <v>107.988579265978</v>
+        <v>159.254117451636</v>
       </c>
       <c r="J9" t="n">
-        <v>18.5460497754398</v>
+        <v>75.9090207918885</v>
       </c>
       <c r="K9" t="n">
-        <v>-31.5713942997207</v>
+        <v>27.1105522435488</v>
       </c>
       <c r="L9" t="n">
-        <v>-60.6615492677588</v>
+        <v>-1.66299881454391</v>
       </c>
       <c r="M9" t="n">
-        <v>-79.2647430206882</v>
+        <v>-20.1584247153941</v>
       </c>
       <c r="N9" t="n">
-        <v>-92.1146861106535</v>
+        <v>-32.9580172322294</v>
       </c>
       <c r="O9" t="n">
-        <v>-101.504070488222</v>
+        <v>-42.318694250835</v>
       </c>
     </row>
     <row r="10">
@@ -872,28 +872,28 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>255.431157304974</v>
+        <v>273.431157313886</v>
       </c>
       <c r="I10" t="n">
-        <v>135.813055843614</v>
+        <v>160.852162605097</v>
       </c>
       <c r="J10" t="n">
-        <v>48.0748494497129</v>
+        <v>76.2284892037397</v>
       </c>
       <c r="K10" t="n">
-        <v>-2.59544164514419</v>
+        <v>26.2981452880862</v>
       </c>
       <c r="L10" t="n">
-        <v>-32.3977568239551</v>
+        <v>-3.31648855059343</v>
       </c>
       <c r="M10" t="n">
-        <v>-51.5410125284338</v>
+        <v>-22.3938021710369</v>
       </c>
       <c r="N10" t="n">
-        <v>-64.7679936149297</v>
+        <v>-35.5887361600515</v>
       </c>
       <c r="O10" t="n">
-        <v>-74.4183693074558</v>
+        <v>-45.2198425936817</v>
       </c>
     </row>
     <row r="11">
@@ -1153,28 +1153,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>18.9462894154569</v>
+        <v>39.9962893841882</v>
       </c>
       <c r="H5" t="n">
-        <v>37.0665969469494</v>
+        <v>64.5363615715299</v>
       </c>
       <c r="I5" t="n">
-        <v>69.9696166610458</v>
+        <v>99.4230571007118</v>
       </c>
       <c r="J5" t="n">
-        <v>89.5753795111941</v>
+        <v>119.265013720958</v>
       </c>
       <c r="K5" t="n">
-        <v>99.0075382039711</v>
+        <v>128.733512119367</v>
       </c>
       <c r="L5" t="n">
-        <v>103.758434079803</v>
+        <v>133.494654266735</v>
       </c>
       <c r="M5" t="n">
-        <v>106.367870576697</v>
+        <v>136.108856473207</v>
       </c>
       <c r="N5" t="n">
-        <v>107.925530574442</v>
+        <v>137.669294341224</v>
       </c>
     </row>
     <row r="6">
@@ -1197,28 +1197,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G6" t="n">
-        <v>35.9663727292728</v>
+        <v>50.0038727084208</v>
       </c>
       <c r="H6" t="n">
-        <v>57.6641792119662</v>
+        <v>75.7476401056969</v>
       </c>
       <c r="I6" t="n">
-        <v>89.2643756641462</v>
+        <v>108.781164038771</v>
       </c>
       <c r="J6" t="n">
-        <v>106.867198322822</v>
+        <v>126.56987446514</v>
       </c>
       <c r="K6" t="n">
-        <v>114.932615726303</v>
+        <v>134.664644585897</v>
       </c>
       <c r="L6" t="n">
-        <v>118.875905933704</v>
+        <v>138.615952696019</v>
       </c>
       <c r="M6" t="n">
-        <v>121.007801107127</v>
+        <v>140.75141956774</v>
       </c>
       <c r="N6" t="n">
-        <v>122.267597124414</v>
+        <v>142.01322774245</v>
       </c>
     </row>
     <row r="7">
@@ -1241,28 +1241,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>50.4356000501135</v>
+        <v>57.4481000396968</v>
       </c>
       <c r="H7" t="n">
-        <v>73.0101013942496</v>
+        <v>81.8674334860162</v>
       </c>
       <c r="I7" t="n">
-        <v>102.901632538931</v>
+        <v>112.514442998258</v>
       </c>
       <c r="J7" t="n">
-        <v>118.774557834411</v>
+        <v>128.49593126875</v>
       </c>
       <c r="K7" t="n">
-        <v>125.819129523402</v>
+        <v>135.558538760338</v>
       </c>
       <c r="L7" t="n">
-        <v>129.205090228531</v>
+        <v>138.949407319755</v>
       </c>
       <c r="M7" t="n">
-        <v>131.016114099001</v>
+        <v>140.762573644397</v>
       </c>
       <c r="N7" t="n">
-        <v>132.074814334467</v>
+        <v>141.8224565217</v>
       </c>
     </row>
     <row r="8">
@@ -1285,28 +1285,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-44.8446656516921</v>
+        <v>8.78033437486027</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.8361410938528</v>
+        <v>31.210535181716</v>
       </c>
       <c r="I8" t="n">
-        <v>-45.0355811101528</v>
+        <v>41.7936110506589</v>
       </c>
       <c r="J8" t="n">
-        <v>-41.2521901830115</v>
+        <v>47.3149321675693</v>
       </c>
       <c r="K8" t="n">
-        <v>-38.6091234560273</v>
+        <v>50.3535346288545</v>
       </c>
       <c r="L8" t="n">
-        <v>-36.9355578656631</v>
+        <v>52.156706759936</v>
       </c>
       <c r="M8" t="n">
-        <v>-35.8511889750334</v>
+        <v>53.2993434632136</v>
       </c>
       <c r="N8" t="n">
-        <v>-35.1202165387623</v>
+        <v>54.0623310393967</v>
       </c>
     </row>
     <row r="9">
@@ -1329,28 +1329,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-22.9489048876922</v>
+        <v>13.0510951301332</v>
       </c>
       <c r="H9" t="n">
-        <v>-16.3638207951224</v>
+        <v>34.9017173905357</v>
       </c>
       <c r="I9" t="n">
-        <v>-12.443842138827</v>
+        <v>44.9191288776217</v>
       </c>
       <c r="J9" t="n">
-        <v>-8.9781168239954</v>
+        <v>49.7038297192741</v>
       </c>
       <c r="K9" t="n">
-        <v>-6.92270868470105</v>
+        <v>52.0758417685138</v>
       </c>
       <c r="L9" t="n">
-        <v>-5.76636317172253</v>
+        <v>53.3399551335716</v>
       </c>
       <c r="M9" t="n">
-        <v>-5.09448647650869</v>
+        <v>54.0621824019155</v>
       </c>
       <c r="N9" t="n">
-        <v>-4.68531430311303</v>
+        <v>54.5000619342742</v>
       </c>
     </row>
     <row r="10">
@@ -1373,28 +1373,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.78931625045402</v>
+        <v>16.2106837584587</v>
       </c>
       <c r="H10" t="n">
-        <v>11.4606557825138</v>
+        <v>36.499762543997</v>
       </c>
       <c r="I10" t="n">
-        <v>17.0849575354461</v>
+        <v>45.2385972894729</v>
       </c>
       <c r="J10" t="n">
-        <v>19.9978358305811</v>
+        <v>48.8914227638114</v>
       </c>
       <c r="K10" t="n">
-        <v>21.3410837591026</v>
+        <v>50.4223520324643</v>
       </c>
       <c r="L10" t="n">
-        <v>21.9573673205318</v>
+        <v>51.1045776779287</v>
       </c>
       <c r="M10" t="n">
-        <v>22.2522060192151</v>
+        <v>51.4314634740933</v>
       </c>
       <c r="N10" t="n">
-        <v>22.4003868776534</v>
+        <v>51.5989135914275</v>
       </c>
     </row>
     <row r="11">
@@ -1651,28 +1651,28 @@
         <v>#NUM!</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0736577814105229</v>
+        <v>0.155494190766932</v>
       </c>
       <c r="H5" t="n">
-        <v>0.298077053026213</v>
+        <v>0.518979621943928</v>
       </c>
       <c r="I5" t="n">
-        <v>2.25782060984969</v>
+        <v>3.20824149292823</v>
       </c>
       <c r="J5" t="n">
-        <v>3.96469169236008</v>
+        <v>5.27878320660202</v>
       </c>
       <c r="K5" t="n">
-        <v>1.84238322095816</v>
+        <v>2.39553944079606</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41171049338801</v>
+        <v>1.81629383587854</v>
       </c>
       <c r="M5" t="n">
-        <v>1.22233540056095</v>
+        <v>1.56410646086131</v>
       </c>
       <c r="N5" t="n">
-        <v>1.11471717699097</v>
+        <v>1.42192793799181</v>
       </c>
     </row>
     <row r="6">
@@ -1695,28 +1695,28 @@
         <v>#NUM!</v>
       </c>
       <c r="G6" t="n">
-        <v>0.139827021667941</v>
+        <v>0.19440082671975</v>
       </c>
       <c r="H6" t="n">
-        <v>0.463715852557997</v>
+        <v>0.609136937192032</v>
       </c>
       <c r="I6" t="n">
-        <v>2.88043520484341</v>
+        <v>3.51021437376138</v>
       </c>
       <c r="J6" t="n">
-        <v>4.73004407782991</v>
+        <v>5.60210330710671</v>
       </c>
       <c r="K6" t="n">
-        <v>2.138725258664</v>
+        <v>2.50590900594072</v>
       </c>
       <c r="L6" t="n">
-        <v>1.61739491643198</v>
+        <v>1.88597290145532</v>
       </c>
       <c r="M6" t="n">
-        <v>1.39057140314404</v>
+        <v>1.61745686816963</v>
       </c>
       <c r="N6" t="n">
-        <v>1.26285031890565</v>
+        <v>1.46679458958276</v>
       </c>
     </row>
     <row r="7">
@@ -1739,28 +1739,28 @@
         <v>#NUM!</v>
       </c>
       <c r="G7" t="n">
-        <v>0.196079259760966</v>
+        <v>0.223341864065566</v>
       </c>
       <c r="H7" t="n">
-        <v>0.587122575506193</v>
+        <v>0.658350248533931</v>
       </c>
       <c r="I7" t="n">
-        <v>3.32049020447076</v>
+        <v>3.6306820078472</v>
       </c>
       <c r="J7" t="n">
-        <v>5.25707516149548</v>
+        <v>5.68735241740861</v>
       </c>
       <c r="K7" t="n">
-        <v>2.34130710968613</v>
+        <v>2.5225430487437</v>
       </c>
       <c r="L7" t="n">
-        <v>1.75793113391123</v>
+        <v>1.89050979906343</v>
       </c>
       <c r="M7" t="n">
-        <v>1.50558278020306</v>
+        <v>1.61758504618697</v>
       </c>
       <c r="N7" t="n">
-        <v>1.36414491921329</v>
+        <v>1.4648241942971</v>
       </c>
     </row>
     <row r="8">
@@ -1783,28 +1783,28 @@
         <v>#NUM!</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.174343297918035</v>
+        <v>0.0341354412947546</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.376640427292437</v>
+        <v>0.250984582254792</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.45323453320661</v>
+        <v>1.34862074273381</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.82586126458783</v>
+        <v>2.09420400463835</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.718458437828665</v>
+        <v>0.937004484699089</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.50253567414089</v>
+        <v>0.709630700256449</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.41198697688308</v>
+        <v>0.612493923104034</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.362741868648007</v>
+        <v>0.558386961055708</v>
       </c>
     </row>
     <row r="9">
@@ -1827,28 +1827,28 @@
         <v>#NUM!</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0892188112807706</v>
+        <v>0.0507389437152283</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.131592319787009</v>
+        <v>0.280667822843683</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.401545193292471</v>
+        <v>1.4494767842976</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.397380009768025</v>
+        <v>2.19993888769246</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.12882132568531</v>
+        <v>0.969054062266684</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.078455650091499</v>
+        <v>0.725729672452396</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0585437231576946</v>
+        <v>0.621260151426987</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.0483926305989214</v>
+        <v>0.562908098406829</v>
       </c>
     </row>
     <row r="10">
@@ -1871,28 +1871,28 @@
         <v>#NUM!</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.006956352368539</v>
+        <v>0.0630225251294605</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0921627228496002</v>
+        <v>0.29351876221177</v>
       </c>
       <c r="I10" t="n">
-        <v>0.551307425747447</v>
+        <v>1.4597855782984</v>
       </c>
       <c r="J10" t="n">
-        <v>0.885123278464898</v>
+        <v>2.16398098134905</v>
       </c>
       <c r="K10" t="n">
-        <v>0.397125868879107</v>
+        <v>0.938285074359438</v>
       </c>
       <c r="L10" t="n">
-        <v>0.298746276661509</v>
+        <v>0.695315703324961</v>
       </c>
       <c r="M10" t="n">
-        <v>0.255713111585231</v>
+        <v>0.591029021886003</v>
       </c>
       <c r="N10" t="n">
-        <v>0.231364125715743</v>
+        <v>0.532943363709143</v>
       </c>
     </row>
     <row r="11">
@@ -2059,158 +2059,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.4210676227189</v>
+        <v>0.888888695790631</v>
       </c>
       <c r="B5" t="n">
-        <v>1.70396927115256</v>
+        <v>2.96676754942641</v>
       </c>
       <c r="C5" t="n">
-        <v>12.9069208780069</v>
+        <v>18.3400394726311</v>
       </c>
       <c r="D5" t="n">
-        <v>22.6643169770647</v>
+        <v>30.176373128377</v>
       </c>
       <c r="E5" t="n">
-        <v>10.5320566019005</v>
+        <v>13.6941960258561</v>
       </c>
       <c r="F5" t="n">
-        <v>8.07009890924157</v>
+        <v>10.3829155995066</v>
       </c>
       <c r="G5" t="n">
-        <v>6.98752869585924</v>
+        <v>8.94127648895023</v>
       </c>
       <c r="H5" t="n">
-        <v>6.37232486142267</v>
+        <v>8.12850733571324</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.02255374699592</v>
+        <v>1.42165149060714</v>
       </c>
       <c r="B6" t="n">
-        <v>3.39114984298707</v>
+        <v>4.45461292194671</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0645966463212</v>
+        <v>25.6701660225064</v>
       </c>
       <c r="D6" t="n">
-        <v>34.5907696348351</v>
+        <v>40.9681309049409</v>
       </c>
       <c r="E6" t="n">
-        <v>15.6404785066169</v>
+        <v>18.3256899352453</v>
       </c>
       <c r="F6" t="n">
-        <v>11.82799442083</v>
+        <v>13.792102800385</v>
       </c>
       <c r="G6" t="n">
-        <v>10.1692361160856</v>
+        <v>11.8284474733281</v>
       </c>
       <c r="H6" t="n">
-        <v>9.23521298021068</v>
+        <v>10.7266555903127</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.94557882003387</v>
+        <v>2.21608955930662</v>
       </c>
       <c r="B7" t="n">
-        <v>5.82567095092624</v>
+        <v>6.5324211304812</v>
       </c>
       <c r="C7" t="n">
-        <v>32.9472654161574</v>
+        <v>36.0251156871805</v>
       </c>
       <c r="D7" t="n">
-        <v>52.1628554799748</v>
+        <v>56.4322428535675</v>
       </c>
       <c r="E7" t="n">
-        <v>23.2314092237656</v>
+        <v>25.0297065290961</v>
       </c>
       <c r="F7" t="n">
-        <v>17.442913571712</v>
+        <v>18.7584134528464</v>
       </c>
       <c r="G7" t="n">
-        <v>14.9390097277076</v>
+        <v>16.0503421386914</v>
       </c>
       <c r="H7" t="n">
-        <v>13.5356052726517</v>
+        <v>14.5345863247947</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2.19830132756692</v>
+        <v>0.43041508799851</v>
       </c>
       <c r="B8" t="n">
-        <v>-4.74907358768441</v>
+        <v>3.16467422010641</v>
       </c>
       <c r="C8" t="n">
-        <v>-18.3238899445168</v>
+        <v>17.0048106496747</v>
       </c>
       <c r="D8" t="n">
-        <v>-23.0223546865763</v>
+        <v>26.4058985838205</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.059069987439</v>
+        <v>11.8147254712284</v>
       </c>
       <c r="F8" t="n">
-        <v>-6.33649158187327</v>
+        <v>8.94776070594578</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.19475958661825</v>
+        <v>7.7229593587204</v>
       </c>
       <c r="H8" t="n">
-        <v>-4.57382612888229</v>
+        <v>7.04072259985532</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.66865742358188</v>
+        <v>0.948969324738886</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.46116820148982</v>
+        <v>5.2493239870101</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.51009073167867</v>
+        <v>27.1095317423164</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.43218939776854</v>
+        <v>41.1454076071701</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.40934236104066</v>
+        <v>18.1241963621858</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.46735426159325</v>
+        <v>13.5733057644128</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.09494193936055</v>
+        <v>11.619414658999</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.905086283221421</v>
+        <v>10.5280575219159</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.244806368671642</v>
+        <v>2.21787435484681</v>
       </c>
       <c r="B10" t="n">
-        <v>3.24336955812377</v>
+        <v>10.3294454488869</v>
       </c>
       <c r="C10" t="n">
-        <v>19.4014854005</v>
+        <v>51.372441694974</v>
       </c>
       <c r="D10" t="n">
-        <v>31.1490568832756</v>
+        <v>76.1543259818823</v>
       </c>
       <c r="E10" t="n">
-        <v>13.975563156569</v>
+        <v>33.0199147000625</v>
       </c>
       <c r="F10" t="n">
-        <v>10.5134109471568</v>
+        <v>24.4693919159679</v>
       </c>
       <c r="G10" t="n">
-        <v>8.99899759995255</v>
+        <v>20.7993587676543</v>
       </c>
       <c r="H10" t="n">
-        <v>8.14211363321951</v>
+        <v>18.7552215105352</v>
       </c>
     </row>
     <row r="11">
@@ -2359,158 +2359,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.29121272206713</v>
+        <v>2.72579588308252</v>
       </c>
       <c r="B5" t="n">
-        <v>5.22525761234426</v>
+        <v>9.09765509515952</v>
       </c>
       <c r="C5" t="n">
-        <v>39.5793443646511</v>
+        <v>56.2401168186796</v>
       </c>
       <c r="D5" t="n">
-        <v>69.5006047455816</v>
+        <v>92.5364829468663</v>
       </c>
       <c r="E5" t="n">
-        <v>32.2967731075911</v>
+        <v>41.9935401655685</v>
       </c>
       <c r="F5" t="n">
-        <v>24.7471280566951</v>
+        <v>31.8394290866251</v>
       </c>
       <c r="G5" t="n">
-        <v>21.4274037258995</v>
+        <v>27.4186124297655</v>
       </c>
       <c r="H5" t="n">
-        <v>19.5408682270177</v>
+        <v>24.9262387250698</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-240.29325774995</v>
+        <v>-334.078545080551</v>
       </c>
       <c r="B6" t="n">
-        <v>-796.897420486247</v>
+        <v>-1046.80409628763</v>
       </c>
       <c r="C6" t="n">
-        <v>-4950.03863239805</v>
+        <v>-6032.31648082235</v>
       </c>
       <c r="D6" t="n">
-        <v>-8128.59837250759</v>
+        <v>-9627.23540742541</v>
       </c>
       <c r="E6" t="n">
-        <v>-3675.40732618141</v>
+        <v>-4306.41396405066</v>
       </c>
       <c r="F6" t="n">
-        <v>-2779.49919051131</v>
+        <v>-3241.05145853027</v>
       </c>
       <c r="G6" t="n">
-        <v>-2389.70213775219</v>
+        <v>-2779.6056548033</v>
       </c>
       <c r="H6" t="n">
-        <v>-2170.21297858322</v>
+        <v>-2520.69196766459</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-369.463338454528</v>
+        <v>-420.833038715643</v>
       </c>
       <c r="B7" t="n">
-        <v>-1106.2886869982</v>
+        <v>-1240.49979070829</v>
       </c>
       <c r="C7" t="n">
-        <v>-6256.65048789391</v>
+        <v>-6841.13096469904</v>
       </c>
       <c r="D7" t="n">
-        <v>-9905.67050304191</v>
+        <v>-10716.4226020886</v>
       </c>
       <c r="E7" t="n">
-        <v>-4411.61978144187</v>
+        <v>-4753.1145176714</v>
       </c>
       <c r="F7" t="n">
-        <v>-3312.39064396597</v>
+        <v>-3562.20266536328</v>
       </c>
       <c r="G7" t="n">
-        <v>-2836.90198020733</v>
+        <v>-3047.94281724094</v>
       </c>
       <c r="H7" t="n">
-        <v>-2570.39697417633</v>
+        <v>-2760.10240824924</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.11622797422605</v>
+        <v>0.218551185739699</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.41142955415426</v>
+        <v>1.60692160328382</v>
       </c>
       <c r="C8" t="n">
-        <v>-9.30429249903932</v>
+        <v>8.6345057001773</v>
       </c>
       <c r="D8" t="n">
-        <v>-11.6900244800168</v>
+        <v>13.4080811916988</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.59990958184199</v>
+        <v>5.99914439090229</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.21747026826535</v>
+        <v>4.5433902447358</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.63773482608959</v>
+        <v>3.92147480962305</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.32244443028889</v>
+        <v>3.57505653395682</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.856220778746507</v>
+        <v>0.486934731330492</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.26287356789046</v>
+        <v>2.69353086411385</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.85357452276321</v>
+        <v>13.9104312555862</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.81360182384772</v>
+        <v>21.1125138362019</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.23628071495284</v>
+        <v>9.29987983397709</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.752928186938141</v>
+        <v>6.9647288098375</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.56183613649653</v>
+        <v>5.96214904707699</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.464417483960931</v>
+        <v>5.40215234278167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.133233519049922</v>
+        <v>1.20705685358686</v>
       </c>
       <c r="B10" t="n">
-        <v>1.76517278595734</v>
+        <v>5.62170165121536</v>
       </c>
       <c r="C10" t="n">
-        <v>10.55907241601</v>
+        <v>27.9589588553102</v>
       </c>
       <c r="D10" t="n">
-        <v>16.9525755647784</v>
+        <v>41.4462617802658</v>
       </c>
       <c r="E10" t="n">
-        <v>7.6060662561914</v>
+        <v>17.9707719945736</v>
       </c>
       <c r="F10" t="n">
-        <v>5.72182310986558</v>
+        <v>13.3172319481155</v>
       </c>
       <c r="G10" t="n">
-        <v>4.89761816520246</v>
+        <v>11.3198515938669</v>
       </c>
       <c r="H10" t="n">
-        <v>4.431267281748</v>
+        <v>10.2073494900007</v>
       </c>
     </row>
     <row r="11">
@@ -2659,158 +2659,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.448568043072551</v>
+        <v>0.946943059182447</v>
       </c>
       <c r="B5" t="n">
-        <v>1.81525750301379</v>
+        <v>3.16053061810876</v>
       </c>
       <c r="C5" t="n">
-        <v>13.7498870204155</v>
+        <v>19.5378489635228</v>
       </c>
       <c r="D5" t="n">
-        <v>24.1445501041644</v>
+        <v>32.1472274543886</v>
       </c>
       <c r="E5" t="n">
-        <v>11.219917572712</v>
+        <v>14.5885800316474</v>
       </c>
       <c r="F5" t="n">
-        <v>8.59716653526003</v>
+        <v>11.0610359965088</v>
       </c>
       <c r="G5" t="n">
-        <v>7.44389239138282</v>
+        <v>9.52524174459398</v>
       </c>
       <c r="H5" t="n">
-        <v>6.78850887288283</v>
+        <v>8.65938968457785</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.869481964976093</v>
+        <v>1.20883653812402</v>
       </c>
       <c r="B6" t="n">
-        <v>2.88350968119872</v>
+        <v>3.78777703173149</v>
       </c>
       <c r="C6" t="n">
-        <v>17.9113195147729</v>
+        <v>21.8274554859173</v>
       </c>
       <c r="D6" t="n">
-        <v>29.4126841161062</v>
+        <v>34.8353825559527</v>
       </c>
       <c r="E6" t="n">
-        <v>13.2991679166512</v>
+        <v>15.5824150478647</v>
       </c>
       <c r="F6" t="n">
-        <v>10.0573958688848</v>
+        <v>11.7274858942734</v>
       </c>
       <c r="G6" t="n">
-        <v>8.64694636002859</v>
+        <v>10.0577811014239</v>
       </c>
       <c r="H6" t="n">
-        <v>7.85274236449337</v>
+        <v>9.12092259960598</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.24712254748635</v>
+        <v>1.42052083842703</v>
       </c>
       <c r="B7" t="n">
-        <v>3.73427461397319</v>
+        <v>4.1873038489171</v>
       </c>
       <c r="C7" t="n">
-        <v>21.1193076093376</v>
+        <v>23.0922199535998</v>
       </c>
       <c r="D7" t="n">
-        <v>33.4365652732672</v>
+        <v>36.1732568956958</v>
       </c>
       <c r="E7" t="n">
-        <v>14.8914112111563</v>
+        <v>16.0441258138587</v>
       </c>
       <c r="F7" t="n">
-        <v>11.1809660884153</v>
+        <v>12.0242059233092</v>
       </c>
       <c r="G7" t="n">
-        <v>9.57595532840854</v>
+        <v>10.2883231303289</v>
       </c>
       <c r="H7" t="n">
-        <v>8.67636836687257</v>
+        <v>9.31671857104346</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-12.849247891577</v>
+        <v>2.51581077289752</v>
       </c>
       <c r="B8" t="n">
-        <v>-27.7587167047008</v>
+        <v>18.497775095845</v>
       </c>
       <c r="C8" t="n">
-        <v>-107.104609037227</v>
+        <v>99.3944845717912</v>
       </c>
       <c r="D8" t="n">
-        <v>-134.567512972865</v>
+        <v>154.344598917603</v>
       </c>
       <c r="E8" t="n">
-        <v>-52.9509919664121</v>
+        <v>69.0580196841194</v>
       </c>
       <c r="F8" t="n">
-        <v>-37.0373024286417</v>
+        <v>52.3003802724626</v>
       </c>
       <c r="G8" t="n">
-        <v>-30.3637871790222</v>
+        <v>45.141317986013</v>
       </c>
       <c r="H8" t="n">
-        <v>-26.7343812269938</v>
+        <v>41.1535893132083</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-7.54835321670193</v>
+        <v>4.29276588094879</v>
       </c>
       <c r="B9" t="n">
-        <v>-11.1333618560734</v>
+        <v>23.745887587761</v>
       </c>
       <c r="C9" t="n">
-        <v>-33.9727116728991</v>
+        <v>122.632913286144</v>
       </c>
       <c r="D9" t="n">
-        <v>-33.6203165221056</v>
+        <v>186.12572327603</v>
       </c>
       <c r="E9" t="n">
-        <v>-10.8989220340139</v>
+        <v>81.9867721062693</v>
       </c>
       <c r="F9" t="n">
-        <v>-6.63773648443854</v>
+        <v>61.4003238652516</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.95308886849444</v>
+        <v>52.5616850876308</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.09425617313472</v>
+        <v>47.6248124618597</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.685302723876695</v>
+        <v>6.20864295663586</v>
       </c>
       <c r="B10" t="n">
-        <v>9.07937977586793</v>
+        <v>28.9159025586981</v>
       </c>
       <c r="C10" t="n">
-        <v>54.3118664124722</v>
+        <v>143.810287358102</v>
       </c>
       <c r="D10" t="n">
-        <v>87.1976233466823</v>
+        <v>213.183861651812</v>
       </c>
       <c r="E10" t="n">
-        <v>39.122721973601</v>
+        <v>92.4348398651372</v>
       </c>
       <c r="F10" t="n">
-        <v>29.4308893939988</v>
+        <v>68.4987936490792</v>
       </c>
       <c r="G10" t="n">
-        <v>25.1914915484865</v>
+        <v>58.2250261531423</v>
       </c>
       <c r="H10" t="n">
-        <v>22.7927593601255</v>
+        <v>52.5027369909657</v>
       </c>
     </row>
     <row r="11">
@@ -2959,158 +2959,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0108691615091948</v>
+        <v>0.0229451857064198</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0439851373403419</v>
+        <v>0.0765821780519111</v>
       </c>
       <c r="C5" t="n">
-        <v>0.333170730875951</v>
+        <v>0.473417665851058</v>
       </c>
       <c r="D5" t="n">
-        <v>0.585041709283254</v>
+        <v>0.778952965265199</v>
       </c>
       <c r="E5" t="n">
-        <v>0.271867552985569</v>
+        <v>0.353492931568787</v>
       </c>
       <c r="F5" t="n">
-        <v>0.208316203163123</v>
+        <v>0.268017725653334</v>
       </c>
       <c r="G5" t="n">
-        <v>0.180371450682946</v>
+        <v>0.230804205816711</v>
       </c>
       <c r="H5" t="n">
-        <v>0.16449098522614</v>
+        <v>0.209823919706891</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0206332915919377</v>
+        <v>0.0286863647353366</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0684272917172982</v>
+        <v>0.0898860598944213</v>
       </c>
       <c r="C6" t="n">
-        <v>0.425045594079499</v>
+        <v>0.517977683140737</v>
       </c>
       <c r="D6" t="n">
-        <v>0.697979385789631</v>
+        <v>0.826663041841744</v>
       </c>
       <c r="E6" t="n">
-        <v>0.315596666299977</v>
+        <v>0.369779393179284</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2386676089641</v>
+        <v>0.278299776009192</v>
       </c>
       <c r="G6" t="n">
-        <v>0.205196856074203</v>
+        <v>0.238676750746942</v>
       </c>
       <c r="H6" t="n">
-        <v>0.186349952649575</v>
+        <v>0.216444576386745</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0288131194327836</v>
+        <v>0.0328192579444995</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0862754832426754</v>
+        <v>0.0967421254177294</v>
       </c>
       <c r="C7" t="n">
-        <v>0.487933710854666</v>
+        <v>0.533515245019224</v>
       </c>
       <c r="D7" t="n">
-        <v>0.772507682250254</v>
+        <v>0.835735327942863</v>
       </c>
       <c r="E7" t="n">
-        <v>0.344046389518456</v>
+        <v>0.370678338067958</v>
       </c>
       <c r="F7" t="n">
-        <v>0.258321455200007</v>
+        <v>0.27780339795074</v>
       </c>
       <c r="G7" t="n">
-        <v>0.221239801266167</v>
+        <v>0.237698118532718</v>
       </c>
       <c r="H7" t="n">
-        <v>0.200456032569855</v>
+        <v>0.215250478351283</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-390.18030074051</v>
+        <v>76.3951176176504</v>
       </c>
       <c r="B8" t="n">
-        <v>-842.921276280359</v>
+        <v>561.703495086148</v>
       </c>
       <c r="C8" t="n">
-        <v>-3252.33888531595</v>
+        <v>3018.21322223785</v>
       </c>
       <c r="D8" t="n">
-        <v>-4086.27751014702</v>
+        <v>4686.82856237999</v>
       </c>
       <c r="E8" t="n">
-        <v>-1607.90998386033</v>
+        <v>2097.01603675628</v>
       </c>
       <c r="F8" t="n">
-        <v>-1124.67483872716</v>
+        <v>1588.15350717372</v>
       </c>
       <c r="G8" t="n">
-        <v>-922.026854264207</v>
+        <v>1370.76139990664</v>
       </c>
       <c r="H8" t="n">
-        <v>-811.81630203413</v>
+        <v>1249.6700188425</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-266.228932861755</v>
+        <v>151.405008046204</v>
       </c>
       <c r="B9" t="n">
-        <v>-392.67148224434</v>
+        <v>837.512783365346</v>
       </c>
       <c r="C9" t="n">
-        <v>-1198.21085678444</v>
+        <v>4325.23872434299</v>
       </c>
       <c r="D9" t="n">
-        <v>-1185.7819491475</v>
+        <v>6564.6176408727</v>
       </c>
       <c r="E9" t="n">
-        <v>-384.402835844873</v>
+        <v>2891.65732180308</v>
       </c>
       <c r="F9" t="n">
-        <v>-234.111659872976</v>
+        <v>2165.57734259742</v>
       </c>
       <c r="G9" t="n">
-        <v>-174.694469902518</v>
+        <v>1853.84029185768</v>
       </c>
       <c r="H9" t="n">
-        <v>-144.403609707146</v>
+        <v>1679.71776564557</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-31.1366332015863</v>
+        <v>282.088822479518</v>
       </c>
       <c r="B10" t="n">
-        <v>412.520347474887</v>
+        <v>1313.78997966013</v>
       </c>
       <c r="C10" t="n">
-        <v>2467.65203764603</v>
+        <v>6534.00024846485</v>
       </c>
       <c r="D10" t="n">
-        <v>3961.81179440962</v>
+        <v>9685.97887252017</v>
       </c>
       <c r="E10" t="n">
-        <v>1777.53538910322</v>
+        <v>4199.76399283363</v>
       </c>
       <c r="F10" t="n">
-        <v>1337.18833433716</v>
+        <v>3112.23308808311</v>
       </c>
       <c r="G10" t="n">
-        <v>1144.57188745571</v>
+        <v>2645.44590196224</v>
       </c>
       <c r="H10" t="n">
-        <v>1035.58582670386</v>
+        <v>2385.45449596257</v>
       </c>
     </row>
     <row r="11">
@@ -3259,158 +3259,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.95929698551992</v>
+        <v>4.1361454744004</v>
       </c>
       <c r="B5" t="n">
-        <v>7.92884961049728</v>
+        <v>13.8048579437085</v>
       </c>
       <c r="C5" t="n">
-        <v>60.0580282220019</v>
+        <v>85.3392237118912</v>
       </c>
       <c r="D5" t="n">
-        <v>105.460799016779</v>
+        <v>140.415633295614</v>
       </c>
       <c r="E5" t="n">
-        <v>49.0073936774873</v>
+        <v>63.7213491251755</v>
       </c>
       <c r="F5" t="n">
-        <v>37.5514991241212</v>
+        <v>48.3134160343692</v>
       </c>
       <c r="G5" t="n">
-        <v>32.5141216549215</v>
+        <v>41.6052318589109</v>
       </c>
       <c r="H5" t="n">
-        <v>29.6514769079599</v>
+        <v>37.8232831505822</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.64924847045905</v>
+        <v>6.46382748843172</v>
       </c>
       <c r="B6" t="n">
-        <v>15.4185520975534</v>
+        <v>20.2538031616352</v>
       </c>
       <c r="C6" t="n">
-        <v>95.7744705610436</v>
+        <v>116.714627927566</v>
       </c>
       <c r="D6" t="n">
-        <v>157.273965587845</v>
+        <v>186.269934961299</v>
       </c>
       <c r="E6" t="n">
-        <v>71.1126148505782</v>
+        <v>83.3214744475292</v>
       </c>
       <c r="F6" t="n">
-        <v>53.7783809713635</v>
+        <v>62.7085989733895</v>
       </c>
       <c r="G6" t="n">
-        <v>46.2364991545394</v>
+        <v>53.7804408666404</v>
       </c>
       <c r="H6" t="n">
-        <v>41.9897731036131</v>
+        <v>48.7709201036268</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.51963538705215</v>
+        <v>7.42611698018009</v>
       </c>
       <c r="B7" t="n">
-        <v>19.521825635581</v>
+        <v>21.8901457637533</v>
       </c>
       <c r="C7" t="n">
-        <v>110.406299298653</v>
+        <v>120.72017676092</v>
       </c>
       <c r="D7" t="n">
-        <v>174.797749119725</v>
+        <v>189.104467878837</v>
       </c>
       <c r="E7" t="n">
-        <v>77.848461397064</v>
+        <v>83.8745563707283</v>
       </c>
       <c r="F7" t="n">
-        <v>58.4512102025487</v>
+        <v>62.8594508188592</v>
       </c>
       <c r="G7" t="n">
-        <v>50.060627441752</v>
+        <v>53.7847027857168</v>
       </c>
       <c r="H7" t="n">
-        <v>45.3578185638419</v>
+        <v>48.7054044603789</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-4.63753172461976</v>
+        <v>0.908002738440475</v>
       </c>
       <c r="B8" t="n">
-        <v>-10.0186353659789</v>
+        <v>6.67618988797749</v>
       </c>
       <c r="C8" t="n">
-        <v>-38.656038583296</v>
+        <v>35.8733117567193</v>
       </c>
       <c r="D8" t="n">
-        <v>-48.5679096380365</v>
+        <v>55.7058265233803</v>
       </c>
       <c r="E8" t="n">
-        <v>-19.1109944462426</v>
+        <v>24.9243192929959</v>
       </c>
       <c r="F8" t="n">
-        <v>-13.3674489321477</v>
+        <v>18.8761766268216</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.95885358509</v>
+        <v>16.2923383545674</v>
       </c>
       <c r="H8" t="n">
-        <v>-9.64893370603703</v>
+        <v>14.8530931640819</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-2.96652547508563</v>
+        <v>1.68706987853135</v>
       </c>
       <c r="B9" t="n">
-        <v>-4.37544463291807</v>
+        <v>9.33220510955249</v>
       </c>
       <c r="C9" t="n">
-        <v>-13.3513776769747</v>
+        <v>48.1951030778954</v>
       </c>
       <c r="D9" t="n">
-        <v>-13.2128853247869</v>
+        <v>73.1479680157745</v>
       </c>
       <c r="E9" t="n">
-        <v>-4.28330907903658</v>
+        <v>32.2210475703674</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.60865036554235</v>
+        <v>24.1305116090422</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.94657879499335</v>
+        <v>20.6569000349474</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.60905496741414</v>
+        <v>18.7166942720271</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.231298716253922</v>
+        <v>2.09549896055457</v>
       </c>
       <c r="B10" t="n">
-        <v>3.06441053474922</v>
+        <v>9.7594988435414</v>
       </c>
       <c r="C10" t="n">
-        <v>18.3309719061027</v>
+        <v>48.5378704784219</v>
       </c>
       <c r="D10" t="n">
-        <v>29.430349008958</v>
+        <v>71.9523676298563</v>
       </c>
       <c r="E10" t="n">
-        <v>13.2044351402304</v>
+        <v>31.1979787224514</v>
       </c>
       <c r="F10" t="n">
-        <v>9.93331369899522</v>
+        <v>23.119247135555</v>
       </c>
       <c r="G10" t="n">
-        <v>8.50246096020895</v>
+        <v>19.6517149777097</v>
       </c>
       <c r="H10" t="n">
-        <v>7.69285718004847</v>
+        <v>17.7203668433291</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_6.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_6.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">scenario</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t xml:space="preserve">p_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_median</t>
   </si>
   <si>
     <t xml:space="preserve">n_viol</t>
@@ -472,10 +478,16 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="n">
         <v>2.66926579875432</v>
@@ -490,39 +502,45 @@
         <v>0.185283218634198</v>
       </c>
       <c r="F2" t="n">
+        <v>0.00724562145005568</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.00724562145005568</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.591666666666667</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>305.958941322087</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>219.986816410931</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>172.032128026305</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>143.781143146268</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>125.127863454262</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>111.924950718939</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>102.155619670662</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>94.6778620376612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="n">
         <v>2.53772697344161</v>
@@ -537,39 +555,45 @@
         <v>0.185712114973629</v>
       </c>
       <c r="F3" t="n">
+        <v>0.00720184928159925</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.00720184928159925</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>320.230815000711</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>234.886769975759</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>184.516741111159</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>153.477532364993</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>132.784947783905</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>118.233936086707</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>107.566109931883</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>99.4651339154544</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="n">
         <v>2.40808009051495</v>
@@ -584,39 +608,45 @@
         <v>0.186447365841225</v>
       </c>
       <c r="F4" t="n">
+        <v>0.00704263603507982</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.00704263603507982</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>330.83460335654</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>242.607747121165</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>188.575514578095</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>154.598681934824</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>132.033821271404</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>116.341275831496</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>104.956497497692</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>96.383767415995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
         <v>2.50646675376909</v>
@@ -631,39 +661,45 @@
         <v>0.187516762977593</v>
       </c>
       <c r="F5" t="n">
+        <v>0.00712076517769104</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.00712076517769104</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.575</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>297.216762939616</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>188.88876163263</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>130.412949014979</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>96.671736245233</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>74.9946715363091</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>59.9962744177698</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>49.0886568390619</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>40.8505381561145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="n">
         <v>2.42500063370624</v>
@@ -678,39 +714,45 @@
         <v>0.187516762977593</v>
       </c>
       <c r="F6" t="n">
+        <v>0.00702611320642567</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.00702611320642567</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.570833333333333</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>307.224346263849</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>200.100040166797</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>139.771055953038</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>103.976596989415</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>80.9258040028391</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>65.1175728470531</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>53.731219933595</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>45.194471557341</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" t="n">
         <v>2.34828547074271</v>
@@ -725,39 +767,45 @@
         <v>0.18820252115183</v>
       </c>
       <c r="F7" t="n">
+        <v>0.00697393253125737</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.00697393253125737</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.570833333333333</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>314.668573595124</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>206.219833547116</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>143.504334912525</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>105.902653793024</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>81.8196981772802</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>65.4510274707899</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>53.7423740102523</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>45.0037003365912</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="n">
         <v>2.30247570932963</v>
@@ -772,39 +820,45 @@
         <v>0.0241232039579724</v>
       </c>
       <c r="F8" t="n">
+        <v>0.00691762997181682</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.00691762997181682</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.575</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>266.000807930288</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>155.562935242816</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>72.7835029649257</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>24.721654691844</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-3.38530595420321</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>-21.3416730890296</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>-33.7208561709312</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>-42.7564251457126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" t="n">
         <v>2.24734989927882</v>
@@ -819,39 +873,45 @@
         <v>0.0241205104336359</v>
       </c>
       <c r="F9" t="n">
+        <v>0.00691659524937938</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.00691659524937938</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.570833333333333</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>270.271568685561</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>159.254117451636</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>75.9090207918885</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>27.1105522435488</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-1.66299881454391</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>-20.1584247153941</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>-32.9580172322294</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>-42.318694250835</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" t="n">
         <v>2.19390741896304</v>
@@ -866,39 +926,45 @@
         <v>0.0241178169092993</v>
       </c>
       <c r="F10" t="n">
+        <v>0.0069140580753277</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0069140580753277</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.570833333333333</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>273.431157313886</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>160.852162605097</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>76.2284892037397</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>26.2981452880862</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-3.31648855059343</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>-22.3938021710369</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>-35.5887361600515</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>-45.2198425936817</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n">
         <v>2.13328846391202</v>
@@ -913,33 +979,39 @@
         <v>0.0241124298606263</v>
       </c>
       <c r="F11" t="n">
+        <v>0.0068986776870958</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0068986776870958</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.554166666666667</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>257.220473555428</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>124.3524000611</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>30.9898919142668</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-22.5932774757253</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-53.7388405830577</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>-73.4983798489656</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>-87.0201996341448</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>-96.8187561851092</v>
       </c>
     </row>
@@ -1000,6 +1072,12 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1015,33 +1093,39 @@
         <v>0.161170788773572</v>
       </c>
       <c r="E2" t="n">
+        <v>0.000346943762959881</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.000346943762959881</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.0375</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>48.7384677666593</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>95.6344163498311</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>141.042236112038</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>166.374420621993</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>178.86670403732</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>185.423330567905</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>189.175819304807</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>191.49661822277</v>
       </c>
     </row>
@@ -1059,33 +1143,39 @@
         <v>0.161599685113003</v>
       </c>
       <c r="E3" t="n">
+        <v>0.000303171594503447</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.000303171594503447</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.0291666666666667</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>63.0103414452833</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>110.534369914659</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>153.526849196892</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>176.070809840718</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>186.523788366962</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>191.732315935673</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>194.586309566028</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>196.283890100564</v>
       </c>
     </row>
@@ -1103,33 +1193,39 @@
         <v>0.162334935980599</v>
       </c>
       <c r="E4" t="n">
+        <v>0.000143958347984022</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.000143958347984022</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.0291666666666667</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>73.6141298011119</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>118.255347060064</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>157.585622663829</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>177.191959410549</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>185.772661854462</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>189.839655680462</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>191.976697131837</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>193.202523601104</v>
       </c>
     </row>
@@ -1147,33 +1243,39 @@
         <v>0.163404333116966</v>
       </c>
       <c r="E5" t="n">
+        <v>0.000222087490595242</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.000222087490595242</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.0208333333333333</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>39.9962893841882</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>64.5363615715299</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>99.4230571007118</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>119.265013720958</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>128.733512119367</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>133.494654266735</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>136.108856473207</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>137.669294341224</v>
       </c>
     </row>
@@ -1191,33 +1293,39 @@
         <v>0.163404333116966</v>
       </c>
       <c r="E6" t="n">
+        <v>0.000127435519329866</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.000127435519329866</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.0166666666666666</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>50.0038727084208</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>75.7476401056969</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>108.781164038771</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>126.56987446514</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>134.664644585897</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>138.615952696019</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>140.75141956774</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>142.01322774245</v>
       </c>
     </row>
@@ -1235,33 +1343,39 @@
         <v>0.164090091291204</v>
       </c>
       <c r="E7" t="n">
+        <v>0.0000752548441615717</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0000752548441615717</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.0166666666666666</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>57.4481000396968</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>81.8674334860162</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>112.514442998258</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>128.49593126875</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>135.558538760338</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>138.949407319755</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>140.762573644397</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>141.8224565217</v>
       </c>
     </row>
@@ -1279,33 +1393,39 @@
         <v>0.0000107740973461258</v>
       </c>
       <c r="E8" t="n">
+        <v>0.0000189522847210246</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0000189522847210246</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.0208333333333333</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>8.78033437486027</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>31.210535181716</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>41.7936110506589</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>47.3149321675693</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>50.3535346288545</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>52.156706759936</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>53.2993434632136</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>54.0623310393967</v>
       </c>
     </row>
@@ -1323,33 +1443,39 @@
         <v>0.00000808057300959522</v>
       </c>
       <c r="E9" t="n">
+        <v>0.0000179175622835809</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0000179175622835809</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.0166666666666666</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>13.0510951301332</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>34.9017173905357</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>44.9191288776217</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>49.7038297192741</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>52.0758417685138</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>53.3399551335716</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>54.0621824019155</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>54.5000619342742</v>
       </c>
     </row>
@@ -1367,33 +1493,39 @@
         <v>0.00000538704867306117</v>
       </c>
       <c r="E10" t="n">
+        <v>0.0000153803882319047</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0000153803882319047</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.0166666666666666</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>16.2106837584587</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>36.499762543997</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>45.2385972894729</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>48.8914227638114</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>50.4223520324643</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>51.1045776779287</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>51.4314634740933</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>51.5989135914275</v>
       </c>
     </row>
@@ -1438,6 +1570,12 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1498,6 +1636,12 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1513,33 +1657,39 @@
         <v>6.68413717344808</v>
       </c>
       <c r="E2" t="n">
+        <v>0.0502913425871237</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0502913425871237</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.0676691729323308</v>
       </c>
-      <c r="F2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.189481292421914</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>0.769059674785861</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>4.55123356035671</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>7.36389046700948</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>3.3284436749406</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>2.52282201252514</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>2.17392996224038</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>1.97788760946944</v>
       </c>
     </row>
@@ -1557,33 +1707,39 @@
         <v>6.70192452801625</v>
       </c>
       <c r="E3" t="n">
+        <v>0.0439463341026265</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0439463341026265</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.0526315789473684</v>
       </c>
-      <c r="F3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.244966275717961</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>0.888880068742929</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>4.95409437443739</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>7.79306189772123</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>3.47093064054248</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>2.60866044026644</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>2.23610506967484</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>2.02733331675203</v>
       </c>
     </row>
@@ -1601,33 +1757,39 @@
         <v>6.73241713584739</v>
       </c>
       <c r="E4" t="n">
+        <v>0.0208675277369895</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0208675277369895</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.0526315789473684</v>
       </c>
-      <c r="F4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.286190787162395</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>0.950969559107504</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>5.08506525610956</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7.8426850465112</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>3.45695329186225</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>2.58290939297669</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>2.20611648719442</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>1.99550718490658</v>
       </c>
     </row>
@@ -1645,33 +1807,39 @@
         <v>6.7767675867372</v>
       </c>
       <c r="E5" t="n">
+        <v>0.0321927622464032</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0321927622464032</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.0375939849624059</v>
       </c>
-      <c r="F5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.155494190766932</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>0.518979621943928</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>3.20824149292823</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>5.27878320660202</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>2.39553944079606</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>1.81629383587854</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>1.56410646086131</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>1.42192793799181</v>
       </c>
     </row>
@@ -1689,33 +1857,39 @@
         <v>6.7767675867372</v>
       </c>
       <c r="E6" t="n">
+        <v>0.0184724558980684</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0184724558980684</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.0300751879699247</v>
       </c>
-      <c r="F6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.19440082671975</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>0.609136937192032</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>3.51021437376138</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>5.60210330710671</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>2.50590900594072</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>1.88597290145532</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>1.61745686816963</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>1.46679458958276</v>
       </c>
     </row>
@@ -1733,33 +1907,39 @@
         <v>6.80520761448227</v>
       </c>
       <c r="E7" t="n">
+        <v>0.0109085896710812</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0109085896710812</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.0300751879699247</v>
       </c>
-      <c r="F7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.223341864065566</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>0.658350248533931</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>3.6306820078472</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>5.68735241740861</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>2.5225430487437</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>1.89050979906343</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>1.61758504618697</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>1.4648241942971</v>
       </c>
     </row>
@@ -1777,33 +1957,39 @@
         <v>0.000446827524575575</v>
       </c>
       <c r="E8" t="n">
+        <v>0.00274723440935289</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.00274723440935289</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.0375939849624059</v>
       </c>
-      <c r="F8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.0341354412947546</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>0.250984582254792</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>1.34862074273381</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>2.09420400463835</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.937004484699089</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.709630700256449</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>0.612493923104034</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>0.558386961055708</v>
       </c>
     </row>
@@ -1821,33 +2007,39 @@
         <v>0.000335120643431717</v>
       </c>
       <c r="E9" t="n">
+        <v>0.00259724589207817</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.00259724589207817</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.0300751879699247</v>
       </c>
-      <c r="F9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.0507389437152283</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>0.280667822843683</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>1.4494767842976</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>2.19993888769246</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.969054062266684</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.725729672452396</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>0.621260151426987</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>0.562908098406829</v>
       </c>
     </row>
@@ -1865,33 +2057,39 @@
         <v>0.000223413762287715</v>
       </c>
       <c r="E10" t="n">
+        <v>0.00222946902718389</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.00222946902718389</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.0300751879699247</v>
       </c>
-      <c r="F10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="H10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I10" t="n">
         <v>0.0630225251294605</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>0.29351876221177</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>1.4597855782984</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>2.16398098134905</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.938285074359438</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.695315703324961</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>0.591029021886003</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>0.532943363709143</v>
       </c>
     </row>
@@ -1911,14 +2109,14 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
-      <c r="F11" t="e">
-        <v>#NUM!</v>
+      <c r="F11" t="n">
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
+      <c r="H11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1936,6 +2134,12 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1955,28 +2159,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2255,28 +2459,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2555,28 +2759,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2855,28 +3059,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -3155,262 +3359,262 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.80011243245718</v>
+        <v>3.76767218122406</v>
       </c>
       <c r="B2" t="n">
-        <v>11.3649929718355</v>
+        <v>15.2920887616702</v>
       </c>
       <c r="C2" t="n">
-        <v>67.2571181697159</v>
+        <v>90.4973565275624</v>
       </c>
       <c r="D2" t="n">
-        <v>108.821936901362</v>
+        <v>146.424614818195</v>
       </c>
       <c r="E2" t="n">
-        <v>49.1870009741222</v>
+        <v>66.1832336087364</v>
       </c>
       <c r="F2" t="n">
-        <v>37.2817030739827</v>
+        <v>50.1641412367279</v>
       </c>
       <c r="G2" t="n">
-        <v>32.1258538864412</v>
+        <v>43.2267235354537</v>
       </c>
       <c r="H2" t="n">
-        <v>29.2287835621596</v>
+        <v>39.3285903243285</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.65435923864125</v>
+        <v>5.57421411182781</v>
       </c>
       <c r="B3" t="n">
-        <v>16.8887213061157</v>
+        <v>20.2264895785654</v>
       </c>
       <c r="C3" t="n">
-        <v>94.1277931143103</v>
+        <v>112.730549102645</v>
       </c>
       <c r="D3" t="n">
-        <v>148.068176056703</v>
+        <v>177.331330516041</v>
       </c>
       <c r="E3" t="n">
-        <v>65.947682170307</v>
+        <v>78.9811189355844</v>
       </c>
       <c r="F3" t="n">
-        <v>49.5645483650624</v>
+        <v>59.360137620911</v>
       </c>
       <c r="G3" t="n">
-        <v>42.485996323822</v>
+        <v>50.8826302656539</v>
       </c>
       <c r="H3" t="n">
-        <v>38.5193330182886</v>
+        <v>46.1320234815869</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.43762495608551</v>
+        <v>13.7146475025452</v>
       </c>
       <c r="B4" t="n">
-        <v>18.0684216230426</v>
+        <v>45.5717405096258</v>
       </c>
       <c r="C4" t="n">
-        <v>96.6162398660815</v>
+        <v>243.683167464818</v>
       </c>
       <c r="D4" t="n">
-        <v>149.011015883713</v>
+        <v>375.832017350544</v>
       </c>
       <c r="E4" t="n">
-        <v>65.6821125453827</v>
+        <v>165.661852013955</v>
       </c>
       <c r="F4" t="n">
-        <v>49.0752784665571</v>
+        <v>123.776492621992</v>
       </c>
       <c r="G4" t="n">
-        <v>41.916213256694</v>
+        <v>105.720069717885</v>
       </c>
       <c r="H4" t="n">
-        <v>37.9146365132251</v>
+        <v>95.6273886421808</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.1361454744004</v>
+        <v>4.83009782064615</v>
       </c>
       <c r="B5" t="n">
-        <v>13.8048579437085</v>
+        <v>16.1210031612591</v>
       </c>
       <c r="C5" t="n">
-        <v>85.3392237118912</v>
+        <v>99.657229422327</v>
       </c>
       <c r="D5" t="n">
-        <v>140.415633295614</v>
+        <v>163.974223963705</v>
       </c>
       <c r="E5" t="n">
-        <v>63.7213491251755</v>
+        <v>74.4123608424969</v>
       </c>
       <c r="F5" t="n">
-        <v>48.3134160343692</v>
+        <v>56.4193225165531</v>
       </c>
       <c r="G5" t="n">
-        <v>41.6052318589109</v>
+        <v>48.5856556479884</v>
       </c>
       <c r="H5" t="n">
-        <v>37.8232831505822</v>
+        <v>44.1691808583675</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.46382748843172</v>
+        <v>10.5238214015754</v>
       </c>
       <c r="B6" t="n">
-        <v>20.2538031616352</v>
+        <v>32.9754170508387</v>
       </c>
       <c r="C6" t="n">
-        <v>116.714627927566</v>
+        <v>190.024238960474</v>
       </c>
       <c r="D6" t="n">
-        <v>186.269934961299</v>
+        <v>303.267921602806</v>
       </c>
       <c r="E6" t="n">
-        <v>83.3214744475292</v>
+        <v>135.656515829211</v>
       </c>
       <c r="F6" t="n">
-        <v>62.7085989733895</v>
+        <v>102.096489598469</v>
       </c>
       <c r="G6" t="n">
-        <v>53.7804408666404</v>
+        <v>87.5604671677012</v>
       </c>
       <c r="H6" t="n">
-        <v>48.7709201036268</v>
+        <v>79.4044169154644</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.42611698018009</v>
+        <v>20.473944918622</v>
       </c>
       <c r="B7" t="n">
-        <v>21.8901457637533</v>
+        <v>60.3515457437385</v>
       </c>
       <c r="C7" t="n">
-        <v>120.72017676092</v>
+        <v>332.827809764646</v>
       </c>
       <c r="D7" t="n">
-        <v>189.104467878837</v>
+        <v>521.364593306305</v>
       </c>
       <c r="E7" t="n">
-        <v>83.8745563707283</v>
+        <v>231.243737715333</v>
       </c>
       <c r="F7" t="n">
-        <v>62.8594508188592</v>
+        <v>173.304694379988</v>
       </c>
       <c r="G7" t="n">
-        <v>53.7847027857168</v>
+        <v>148.285442477977</v>
       </c>
       <c r="H7" t="n">
-        <v>48.7054044603789</v>
+        <v>134.281720961635</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.908002738440475</v>
+        <v>12.4253835706707</v>
       </c>
       <c r="B8" t="n">
-        <v>6.67618988797749</v>
+        <v>91.3589977616478</v>
       </c>
       <c r="C8" t="n">
-        <v>35.8733117567193</v>
+        <v>490.901227118611</v>
       </c>
       <c r="D8" t="n">
-        <v>55.7058265233803</v>
+        <v>762.295346006401</v>
       </c>
       <c r="E8" t="n">
-        <v>24.9243192929959</v>
+        <v>341.071909083944</v>
       </c>
       <c r="F8" t="n">
-        <v>18.8761766268216</v>
+        <v>258.307299093419</v>
       </c>
       <c r="G8" t="n">
-        <v>16.2923383545674</v>
+        <v>222.949276195295</v>
       </c>
       <c r="H8" t="n">
-        <v>14.8530931640819</v>
+        <v>203.254210545228</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.68706987853135</v>
+        <v>19.5356719477299</v>
       </c>
       <c r="B9" t="n">
-        <v>9.33220510955249</v>
+        <v>108.063631441191</v>
       </c>
       <c r="C9" t="n">
-        <v>48.1951030778954</v>
+        <v>558.082231920602</v>
       </c>
       <c r="D9" t="n">
-        <v>73.1479680157745</v>
+        <v>847.027574247961</v>
       </c>
       <c r="E9" t="n">
-        <v>32.2210475703674</v>
+        <v>373.108324176153</v>
       </c>
       <c r="F9" t="n">
-        <v>24.1305116090422</v>
+        <v>279.422781903683</v>
       </c>
       <c r="G9" t="n">
-        <v>20.6569000349474</v>
+        <v>239.199589581366</v>
       </c>
       <c r="H9" t="n">
-        <v>18.7166942720271</v>
+        <v>216.732693705955</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.09549896055457</v>
+        <v>28.2679527551303</v>
       </c>
       <c r="B10" t="n">
-        <v>9.7594988435414</v>
+        <v>131.654110746953</v>
       </c>
       <c r="C10" t="n">
-        <v>48.5378704784219</v>
+        <v>654.768270157266</v>
       </c>
       <c r="D10" t="n">
-        <v>71.9523676298563</v>
+        <v>970.626169264366</v>
       </c>
       <c r="E10" t="n">
-        <v>31.1979787224514</v>
+        <v>420.855846355764</v>
       </c>
       <c r="F10" t="n">
-        <v>23.119247135555</v>
+        <v>311.875022638568</v>
       </c>
       <c r="G10" t="n">
-        <v>19.6517149777097</v>
+        <v>265.098556956653</v>
       </c>
       <c r="H10" t="n">
-        <v>17.7203668433291</v>
+        <v>239.044973135294</v>
       </c>
     </row>
     <row r="11">
@@ -3455,262 +3659,262 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>3.76767218122406</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15.2920887616702</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>90.4973565275624</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>146.424614818195</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>66.1832336087364</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50.1641412367279</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>43.2267235354537</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.3285903243285</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>5.57421411182781</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>20.2264895785654</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>112.730549102645</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>177.331330516041</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>78.9811189355844</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>59.360137620911</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>50.8826302656539</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>46.1320234815869</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>13.7146475025452</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>45.5717405096258</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>243.683167464818</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>375.832017350544</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>165.661852013955</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>123.776492621992</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>105.720069717885</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>95.6273886421808</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>4.83009782064615</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>16.1210031612591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>99.657229422327</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>163.974223963705</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>74.4123608424969</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>56.4193225165531</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>48.5856556479884</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>44.1691808583675</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>10.5238214015754</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>32.9754170508387</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>190.024238960474</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>303.267921602806</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.656515829211</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>102.096489598469</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>87.5604671677012</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>79.4044169154644</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>20.473944918622</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>60.3515457437385</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>332.827809764646</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>521.364593306305</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>231.243737715333</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>173.304694379988</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>148.285442477977</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>134.281720961635</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H8" t="e">
-        <v>#NUM!</v>
+      <c r="A8" t="n">
+        <v>12.4253835706707</v>
+      </c>
+      <c r="B8" t="n">
+        <v>91.3589977616478</v>
+      </c>
+      <c r="C8" t="n">
+        <v>490.901227118611</v>
+      </c>
+      <c r="D8" t="n">
+        <v>762.295346006401</v>
+      </c>
+      <c r="E8" t="n">
+        <v>341.071909083944</v>
+      </c>
+      <c r="F8" t="n">
+        <v>258.307299093419</v>
+      </c>
+      <c r="G8" t="n">
+        <v>222.949276195295</v>
+      </c>
+      <c r="H8" t="n">
+        <v>203.254210545228</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H9" t="e">
-        <v>#NUM!</v>
+      <c r="A9" t="n">
+        <v>19.5356719477299</v>
+      </c>
+      <c r="B9" t="n">
+        <v>108.063631441191</v>
+      </c>
+      <c r="C9" t="n">
+        <v>558.082231920602</v>
+      </c>
+      <c r="D9" t="n">
+        <v>847.027574247961</v>
+      </c>
+      <c r="E9" t="n">
+        <v>373.108324176153</v>
+      </c>
+      <c r="F9" t="n">
+        <v>279.422781903683</v>
+      </c>
+      <c r="G9" t="n">
+        <v>239.199589581366</v>
+      </c>
+      <c r="H9" t="n">
+        <v>216.732693705955</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H10" t="e">
-        <v>#NUM!</v>
+      <c r="A10" t="n">
+        <v>28.2679527551303</v>
+      </c>
+      <c r="B10" t="n">
+        <v>131.654110746953</v>
+      </c>
+      <c r="C10" t="n">
+        <v>654.768270157266</v>
+      </c>
+      <c r="D10" t="n">
+        <v>970.626169264366</v>
+      </c>
+      <c r="E10" t="n">
+        <v>420.855846355764</v>
+      </c>
+      <c r="F10" t="n">
+        <v>311.875022638568</v>
+      </c>
+      <c r="G10" t="n">
+        <v>265.098556956653</v>
+      </c>
+      <c r="H10" t="n">
+        <v>239.044973135294</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_6.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_6.xlsx
@@ -13,8 +13,10 @@
     <sheet name="elast_nmax" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="elast_pmean" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="elast_pmax" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="elast_nviol" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="elast_pviol" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="elast_nmedian" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="elast_pmedian" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="elast_nviol" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="elast_pviol" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
@@ -1021,6 +1023,606 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2.80011243245718</v>
+      </c>
+      <c r="B2" t="n">
+        <v>11.3649929718355</v>
+      </c>
+      <c r="C2" t="n">
+        <v>67.2571181697159</v>
+      </c>
+      <c r="D2" t="n">
+        <v>108.821936901362</v>
+      </c>
+      <c r="E2" t="n">
+        <v>49.1870009741222</v>
+      </c>
+      <c r="F2" t="n">
+        <v>37.2817030739827</v>
+      </c>
+      <c r="G2" t="n">
+        <v>32.1258538864412</v>
+      </c>
+      <c r="H2" t="n">
+        <v>29.2287835621596</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4.65435923864125</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16.8887213061157</v>
+      </c>
+      <c r="C3" t="n">
+        <v>94.1277931143103</v>
+      </c>
+      <c r="D3" t="n">
+        <v>148.068176056703</v>
+      </c>
+      <c r="E3" t="n">
+        <v>65.947682170307</v>
+      </c>
+      <c r="F3" t="n">
+        <v>49.5645483650624</v>
+      </c>
+      <c r="G3" t="n">
+        <v>42.485996323822</v>
+      </c>
+      <c r="H3" t="n">
+        <v>38.5193330182886</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5.43762495608551</v>
+      </c>
+      <c r="B4" t="n">
+        <v>18.0684216230426</v>
+      </c>
+      <c r="C4" t="n">
+        <v>96.6162398660815</v>
+      </c>
+      <c r="D4" t="n">
+        <v>149.011015883713</v>
+      </c>
+      <c r="E4" t="n">
+        <v>65.6821125453827</v>
+      </c>
+      <c r="F4" t="n">
+        <v>49.0752784665571</v>
+      </c>
+      <c r="G4" t="n">
+        <v>41.916213256694</v>
+      </c>
+      <c r="H4" t="n">
+        <v>37.9146365132251</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.1361454744004</v>
+      </c>
+      <c r="B5" t="n">
+        <v>13.8048579437085</v>
+      </c>
+      <c r="C5" t="n">
+        <v>85.3392237118912</v>
+      </c>
+      <c r="D5" t="n">
+        <v>140.415633295614</v>
+      </c>
+      <c r="E5" t="n">
+        <v>63.7213491251755</v>
+      </c>
+      <c r="F5" t="n">
+        <v>48.3134160343692</v>
+      </c>
+      <c r="G5" t="n">
+        <v>41.6052318589109</v>
+      </c>
+      <c r="H5" t="n">
+        <v>37.8232831505822</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6.46382748843172</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20.2538031616352</v>
+      </c>
+      <c r="C6" t="n">
+        <v>116.714627927566</v>
+      </c>
+      <c r="D6" t="n">
+        <v>186.269934961299</v>
+      </c>
+      <c r="E6" t="n">
+        <v>83.3214744475292</v>
+      </c>
+      <c r="F6" t="n">
+        <v>62.7085989733895</v>
+      </c>
+      <c r="G6" t="n">
+        <v>53.7804408666404</v>
+      </c>
+      <c r="H6" t="n">
+        <v>48.7709201036268</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7.42611698018009</v>
+      </c>
+      <c r="B7" t="n">
+        <v>21.8901457637533</v>
+      </c>
+      <c r="C7" t="n">
+        <v>120.72017676092</v>
+      </c>
+      <c r="D7" t="n">
+        <v>189.104467878837</v>
+      </c>
+      <c r="E7" t="n">
+        <v>83.8745563707283</v>
+      </c>
+      <c r="F7" t="n">
+        <v>62.8594508188592</v>
+      </c>
+      <c r="G7" t="n">
+        <v>53.7847027857168</v>
+      </c>
+      <c r="H7" t="n">
+        <v>48.7054044603789</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.908002738440475</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6.67618988797749</v>
+      </c>
+      <c r="C8" t="n">
+        <v>35.8733117567193</v>
+      </c>
+      <c r="D8" t="n">
+        <v>55.7058265233803</v>
+      </c>
+      <c r="E8" t="n">
+        <v>24.9243192929959</v>
+      </c>
+      <c r="F8" t="n">
+        <v>18.8761766268216</v>
+      </c>
+      <c r="G8" t="n">
+        <v>16.2923383545674</v>
+      </c>
+      <c r="H8" t="n">
+        <v>14.8530931640819</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.68706987853135</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9.33220510955249</v>
+      </c>
+      <c r="C9" t="n">
+        <v>48.1951030778954</v>
+      </c>
+      <c r="D9" t="n">
+        <v>73.1479680157745</v>
+      </c>
+      <c r="E9" t="n">
+        <v>32.2210475703674</v>
+      </c>
+      <c r="F9" t="n">
+        <v>24.1305116090422</v>
+      </c>
+      <c r="G9" t="n">
+        <v>20.6569000349474</v>
+      </c>
+      <c r="H9" t="n">
+        <v>18.7166942720271</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2.09549896055457</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9.7594988435414</v>
+      </c>
+      <c r="C10" t="n">
+        <v>48.5378704784219</v>
+      </c>
+      <c r="D10" t="n">
+        <v>71.9523676298563</v>
+      </c>
+      <c r="E10" t="n">
+        <v>31.1979787224514</v>
+      </c>
+      <c r="F10" t="n">
+        <v>23.119247135555</v>
+      </c>
+      <c r="G10" t="n">
+        <v>19.6517149777097</v>
+      </c>
+      <c r="H10" t="n">
+        <v>17.7203668433291</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H8" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H9" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H10" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_6.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_6.xlsx
@@ -504,7 +504,7 @@
         <v>0.185283218634198</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00724562145005568</v>
+        <v>1.3929105799127</v>
       </c>
       <c r="G2" t="n">
         <v>0.00724562145005568</v>
@@ -557,7 +557,7 @@
         <v>0.185712114973629</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00720184928159925</v>
+        <v>1.37066265110347</v>
       </c>
       <c r="G3" t="n">
         <v>0.00720184928159925</v>
@@ -610,7 +610,7 @@
         <v>0.186447365841225</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00704263603507982</v>
+        <v>1.35989412808817</v>
       </c>
       <c r="G4" t="n">
         <v>0.00704263603507982</v>
@@ -663,7 +663,7 @@
         <v>0.187516762977593</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00712076517769104</v>
+        <v>1.35691219904151</v>
       </c>
       <c r="G5" t="n">
         <v>0.00712076517769104</v>
@@ -716,7 +716,7 @@
         <v>0.187516762977593</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00702611320642567</v>
+        <v>1.35188315609699</v>
       </c>
       <c r="G6" t="n">
         <v>0.00702611320642567</v>
@@ -769,7 +769,7 @@
         <v>0.18820252115183</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00697393253125737</v>
+        <v>1.30978733574842</v>
       </c>
       <c r="G7" t="n">
         <v>0.00697393253125737</v>
@@ -822,7 +822,7 @@
         <v>0.0241232039579724</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00691762997181682</v>
+        <v>1.30559819135185</v>
       </c>
       <c r="G8" t="n">
         <v>0.00691762997181682</v>
@@ -875,7 +875,7 @@
         <v>0.0241205104336359</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00691659524937938</v>
+        <v>1.27961507985107</v>
       </c>
       <c r="G9" t="n">
         <v>0.00691659524937938</v>
@@ -928,7 +928,7 @@
         <v>0.0241178169092993</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0069140580753277</v>
+        <v>1.24987627100116</v>
       </c>
       <c r="G10" t="n">
         <v>0.0069140580753277</v>
@@ -981,7 +981,7 @@
         <v>0.0241124298606263</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0068986776870958</v>
+        <v>1.21943905765341</v>
       </c>
       <c r="G11" t="n">
         <v>0.0068986776870958</v>
@@ -1695,7 +1695,7 @@
         <v>0.161170788773572</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000346943762959881</v>
+        <v>0.173471522259294</v>
       </c>
       <c r="F2" t="n">
         <v>0.000346943762959881</v>
@@ -1745,7 +1745,7 @@
         <v>0.161599685113003</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000303171594503447</v>
+        <v>0.151223593450061</v>
       </c>
       <c r="F3" t="n">
         <v>0.000303171594503447</v>
@@ -1795,7 +1795,7 @@
         <v>0.162334935980599</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000143958347984022</v>
+        <v>0.140455070434763</v>
       </c>
       <c r="F4" t="n">
         <v>0.000143958347984022</v>
@@ -1845,7 +1845,7 @@
         <v>0.163404333116966</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000222087490595242</v>
+        <v>0.1374731413881</v>
       </c>
       <c r="F5" t="n">
         <v>0.000222087490595242</v>
@@ -1895,7 +1895,7 @@
         <v>0.163404333116966</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000127435519329866</v>
+        <v>0.132444098443586</v>
       </c>
       <c r="F6" t="n">
         <v>0.000127435519329866</v>
@@ -1945,7 +1945,7 @@
         <v>0.164090091291204</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0000752548441615717</v>
+        <v>0.0903482780950109</v>
       </c>
       <c r="F7" t="n">
         <v>0.0000752548441615717</v>
@@ -1995,7 +1995,7 @@
         <v>0.0000107740973461258</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0000189522847210246</v>
+        <v>0.0861591336984426</v>
       </c>
       <c r="F8" t="n">
         <v>0.0000189522847210246</v>
@@ -2045,7 +2045,7 @@
         <v>0.00000808057300959522</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0000179175622835809</v>
+        <v>0.0601760221976604</v>
       </c>
       <c r="F9" t="n">
         <v>0.0000179175622835809</v>
@@ -2095,7 +2095,7 @@
         <v>0.00000538704867306117</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0000153803882319047</v>
+        <v>0.0304372133477544</v>
       </c>
       <c r="F10" t="n">
         <v>0.0000153803882319047</v>
@@ -2259,7 +2259,7 @@
         <v>6.68413717344808</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0502913425871237</v>
+        <v>0.142255179683279</v>
       </c>
       <c r="F2" t="n">
         <v>0.0502913425871237</v>
@@ -2309,7 +2309,7 @@
         <v>6.70192452801625</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0439463341026265</v>
+        <v>0.124010783893591</v>
       </c>
       <c r="F3" t="n">
         <v>0.0439463341026265</v>
@@ -2359,7 +2359,7 @@
         <v>6.73241713584739</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0208675277369895</v>
+        <v>0.115180065418803</v>
       </c>
       <c r="F4" t="n">
         <v>0.0208675277369895</v>
@@ -2409,7 +2409,7 @@
         <v>6.7767675867372</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0321927622464032</v>
+        <v>0.112734736947529</v>
       </c>
       <c r="F5" t="n">
         <v>0.0321927622464032</v>
@@ -2459,7 +2459,7 @@
         <v>6.7767675867372</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0184724558980684</v>
+        <v>0.108610674401762</v>
       </c>
       <c r="F6" t="n">
         <v>0.0184724558980684</v>
@@ -2509,7 +2509,7 @@
         <v>6.80520761448227</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0109085896710812</v>
+        <v>0.0740900314189296</v>
       </c>
       <c r="F7" t="n">
         <v>0.0109085896710812</v>
@@ -2559,7 +2559,7 @@
         <v>0.000446827524575575</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00274723440935289</v>
+        <v>0.0706547269891785</v>
       </c>
       <c r="F8" t="n">
         <v>0.00274723440935289</v>
@@ -2609,7 +2609,7 @@
         <v>0.000335120643431717</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00259724589207817</v>
+        <v>0.0493472976939564</v>
       </c>
       <c r="F9" t="n">
         <v>0.00259724589207817</v>
@@ -2659,7 +2659,7 @@
         <v>0.000223413762287715</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00222946902718389</v>
+        <v>0.0249600118650663</v>
       </c>
       <c r="F10" t="n">
         <v>0.00222946902718389</v>
@@ -3987,236 +3987,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.76767218122406</v>
+        <v>1.33198167436702</v>
       </c>
       <c r="B2" t="n">
-        <v>15.2920887616702</v>
+        <v>5.40619804845152</v>
       </c>
       <c r="C2" t="n">
-        <v>90.4973565275624</v>
+        <v>31.9934470610471</v>
       </c>
       <c r="D2" t="n">
-        <v>146.424614818195</v>
+        <v>51.7653591482902</v>
       </c>
       <c r="E2" t="n">
-        <v>66.1832336087364</v>
+        <v>23.3976975907039</v>
       </c>
       <c r="F2" t="n">
-        <v>50.1641412367279</v>
+        <v>17.7344826258139</v>
       </c>
       <c r="G2" t="n">
-        <v>43.2267235354537</v>
+        <v>15.281903738623</v>
       </c>
       <c r="H2" t="n">
-        <v>39.3285903243285</v>
+        <v>13.9038002965732</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.57421411182781</v>
+        <v>1.9753626904589</v>
       </c>
       <c r="B3" t="n">
-        <v>20.2264895785654</v>
+        <v>7.16776429302831</v>
       </c>
       <c r="C3" t="n">
-        <v>112.730549102645</v>
+        <v>39.9488997560754</v>
       </c>
       <c r="D3" t="n">
-        <v>177.331330516041</v>
+        <v>62.8418082124873</v>
       </c>
       <c r="E3" t="n">
-        <v>78.9811189355844</v>
+        <v>27.9889420223386</v>
       </c>
       <c r="F3" t="n">
-        <v>59.360137620911</v>
+        <v>21.0357547816555</v>
       </c>
       <c r="G3" t="n">
-        <v>50.8826302656539</v>
+        <v>18.0315372539985</v>
       </c>
       <c r="H3" t="n">
-        <v>46.1320234815869</v>
+        <v>16.3480404937333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13.7146475025452</v>
+        <v>2.48472499231342</v>
       </c>
       <c r="B4" t="n">
-        <v>45.5717405096258</v>
+        <v>8.25637279897097</v>
       </c>
       <c r="C4" t="n">
-        <v>243.683167464818</v>
+        <v>44.1488311160432</v>
       </c>
       <c r="D4" t="n">
-        <v>375.832017350544</v>
+        <v>68.0906458769113</v>
       </c>
       <c r="E4" t="n">
-        <v>165.661852013955</v>
+        <v>30.0134687308304</v>
       </c>
       <c r="F4" t="n">
-        <v>123.776492621992</v>
+        <v>22.4249689699779</v>
       </c>
       <c r="G4" t="n">
-        <v>105.720069717885</v>
+        <v>19.1536311354992</v>
       </c>
       <c r="H4" t="n">
-        <v>95.6273886421808</v>
+        <v>17.3251089730742</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.83009782064615</v>
+        <v>1.37929262068802</v>
       </c>
       <c r="B5" t="n">
-        <v>16.1210031612591</v>
+        <v>4.60354666180203</v>
       </c>
       <c r="C5" t="n">
-        <v>99.657229422327</v>
+        <v>28.458322428352</v>
       </c>
       <c r="D5" t="n">
-        <v>163.974223963705</v>
+        <v>46.8248150439998</v>
       </c>
       <c r="E5" t="n">
-        <v>74.4123608424969</v>
+        <v>21.2493460814215</v>
       </c>
       <c r="F5" t="n">
-        <v>56.4193225165531</v>
+        <v>16.1112172260082</v>
       </c>
       <c r="G5" t="n">
-        <v>48.5856556479884</v>
+        <v>13.8742192798064</v>
       </c>
       <c r="H5" t="n">
-        <v>44.1691808583675</v>
+        <v>12.6130416985283</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10.5238214015754</v>
+        <v>1.78988693137695</v>
       </c>
       <c r="B6" t="n">
-        <v>32.9754170508387</v>
+        <v>5.60844447884353</v>
       </c>
       <c r="C6" t="n">
-        <v>190.024238960474</v>
+        <v>32.3192392745555</v>
       </c>
       <c r="D6" t="n">
-        <v>303.267921602806</v>
+        <v>51.5796751835272</v>
       </c>
       <c r="E6" t="n">
-        <v>135.656515829211</v>
+        <v>23.0724007538256</v>
       </c>
       <c r="F6" t="n">
-        <v>102.096489598469</v>
+        <v>17.364526201899</v>
       </c>
       <c r="G6" t="n">
-        <v>87.5604671677012</v>
+        <v>14.8922458780294</v>
       </c>
       <c r="H6" t="n">
-        <v>79.4044169154644</v>
+        <v>13.5050684259352</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>20.473944918622</v>
+        <v>3.01446577614088</v>
       </c>
       <c r="B7" t="n">
-        <v>60.3515457437385</v>
+        <v>8.88581413620142</v>
       </c>
       <c r="C7" t="n">
-        <v>332.827809764646</v>
+        <v>49.0036505359016</v>
       </c>
       <c r="D7" t="n">
-        <v>521.364593306305</v>
+        <v>76.7627210906477</v>
       </c>
       <c r="E7" t="n">
-        <v>231.243737715333</v>
+        <v>34.0469966125457</v>
       </c>
       <c r="F7" t="n">
-        <v>173.304694379988</v>
+        <v>25.5163854415699</v>
       </c>
       <c r="G7" t="n">
-        <v>148.285442477977</v>
+        <v>21.8326948336761</v>
       </c>
       <c r="H7" t="n">
-        <v>134.281720961635</v>
+        <v>19.7708675005751</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12.4253835706707</v>
+        <v>0.483130326156137</v>
       </c>
       <c r="B8" t="n">
-        <v>91.3589977616478</v>
+        <v>3.5522687999804</v>
       </c>
       <c r="C8" t="n">
-        <v>490.901227118611</v>
+        <v>19.0874807702585</v>
       </c>
       <c r="D8" t="n">
-        <v>762.295346006401</v>
+        <v>29.6399702309953</v>
       </c>
       <c r="E8" t="n">
-        <v>341.071909083944</v>
+        <v>13.2617380977582</v>
       </c>
       <c r="F8" t="n">
-        <v>258.307299093419</v>
+        <v>10.0436408220095</v>
       </c>
       <c r="G8" t="n">
-        <v>222.949276195295</v>
+        <v>8.66883150221279</v>
       </c>
       <c r="H8" t="n">
-        <v>203.254210545228</v>
+        <v>7.90303755814145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19.5356719477299</v>
+        <v>1.02820105834169</v>
       </c>
       <c r="B9" t="n">
-        <v>108.063631441191</v>
+        <v>5.68760268463609</v>
       </c>
       <c r="C9" t="n">
-        <v>558.082231920602</v>
+        <v>29.3729718147286</v>
       </c>
       <c r="D9" t="n">
-        <v>847.027574247961</v>
+        <v>44.5807367474529</v>
       </c>
       <c r="E9" t="n">
-        <v>373.108324176153</v>
+        <v>19.6374291511684</v>
       </c>
       <c r="F9" t="n">
-        <v>279.422781903683</v>
+        <v>14.7065737409422</v>
       </c>
       <c r="G9" t="n">
-        <v>239.199589581366</v>
+        <v>12.589547563069</v>
       </c>
       <c r="H9" t="n">
-        <v>216.732693705955</v>
+        <v>11.4070703911264</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>28.2679527551303</v>
+        <v>2.52493971037193</v>
       </c>
       <c r="B10" t="n">
-        <v>131.654110746953</v>
+        <v>11.7595602036782</v>
       </c>
       <c r="C10" t="n">
-        <v>654.768270157266</v>
+        <v>58.4849713289397</v>
       </c>
       <c r="D10" t="n">
-        <v>970.626169264366</v>
+        <v>86.6979147705346</v>
       </c>
       <c r="E10" t="n">
-        <v>420.855846355764</v>
+        <v>37.5915315838711</v>
       </c>
       <c r="F10" t="n">
-        <v>311.875022638568</v>
+        <v>27.8571864101601</v>
       </c>
       <c r="G10" t="n">
-        <v>265.098556956653</v>
+        <v>23.6790360950588</v>
       </c>
       <c r="H10" t="n">
-        <v>239.044973135294</v>
+        <v>21.3518874345987</v>
       </c>
     </row>
     <row r="11">
